--- a/test_契約管理/已完成/test_契約管理_随時対応_操作鍵類の再発行・追加貸与.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_操作鍵類の再発行・追加貸与.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27150" windowHeight="13650" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22051" uniqueCount="1354">
   <si>
     <t>SQL</t>
   </si>
@@ -1759,7 +1759,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>勤務先備考</t>
     </r>
@@ -4123,14 +4123,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4150,7 +4146,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4164,20 +4160,19 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4190,27 +4185,27 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4223,7 +4218,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4236,20 +4231,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4269,158 +4261,28 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="45">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4435,19 +4297,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4459,7 +4321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4477,7 +4339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4501,192 +4363,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4726,261 +4420,22 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5004,17 +4459,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5030,13 +4485,13 @@
     <xf numFmtId="49" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5099,61 +4554,826 @@
     <xf numFmtId="14" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="標準 26" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="標準 26" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="117">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5165,8 +5385,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF99"/>
-      <color rgb="00FFFFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5458,16 +5678,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:IE364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5491,7 +5711,7 @@
     <col min="42" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
@@ -5499,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="45" t="s">
         <v>0</v>
       </c>
@@ -5507,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +5740,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -5529,7 +5749,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:2">
+    <row r="6" spans="1:7" customFormat="1" ht="14.25">
       <c r="A6" s="44" t="s">
         <v>0</v>
       </c>
@@ -5537,7 +5757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:2">
+    <row r="7" spans="1:7" customFormat="1" ht="14.25">
       <c r="A7" s="44" t="s">
         <v>0</v>
       </c>
@@ -5545,7 +5765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:7" customFormat="1" ht="14.25">
       <c r="A8" s="44" t="s">
         <v>0</v>
       </c>
@@ -5553,7 +5773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:7" customFormat="1" ht="14.25">
       <c r="A9" s="44" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:2">
+    <row r="10" spans="1:7" customFormat="1" ht="14.25">
       <c r="A10" s="44" t="s">
         <v>0</v>
       </c>
@@ -5569,11 +5789,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="13.5" spans="1:2">
+    <row r="11" spans="1:7" customFormat="1" ht="13.5">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="12" spans="1:7" customFormat="1" ht="14.25">
       <c r="A12" s="44" t="s">
         <v>0</v>
       </c>
@@ -5581,7 +5801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:2">
+    <row r="13" spans="1:7" customFormat="1" ht="14.25">
       <c r="A13" s="44" t="s">
         <v>0</v>
       </c>
@@ -5589,7 +5809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:2">
+    <row r="14" spans="1:7" customFormat="1" ht="14.25">
       <c r="A14" s="44" t="s">
         <v>0</v>
       </c>
@@ -5597,7 +5817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:2">
+    <row r="15" spans="1:7" customFormat="1" ht="14.25">
       <c r="A15" s="44" t="s">
         <v>0</v>
       </c>
@@ -5605,7 +5825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="16" spans="1:7" customFormat="1" ht="14.25">
       <c r="A16" s="44" t="s">
         <v>0</v>
       </c>
@@ -5613,7 +5833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2" customFormat="1" ht="14.25">
       <c r="A17" s="44" t="s">
         <v>0</v>
       </c>
@@ -5621,8 +5841,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="13.5"/>
-    <row r="19" customFormat="1" ht="14.25" spans="1:2">
+    <row r="18" spans="1:2" customFormat="1" ht="13.5"/>
+    <row r="19" spans="1:2" customFormat="1" ht="14.25">
       <c r="A19" s="44" t="s">
         <v>0</v>
       </c>
@@ -5630,7 +5850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2" customFormat="1" ht="14.25">
       <c r="A20" s="44" t="s">
         <v>0</v>
       </c>
@@ -5638,7 +5858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:2">
+    <row r="21" spans="1:2" customFormat="1" ht="14.25">
       <c r="A21" s="44" t="s">
         <v>0</v>
       </c>
@@ -5646,11 +5866,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="13.5" spans="1:2">
+    <row r="22" spans="1:2" customFormat="1" ht="13.5">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2" customFormat="1" ht="14.25">
       <c r="A23" s="44" t="s">
         <v>0</v>
       </c>
@@ -5658,7 +5878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:2" customFormat="1" ht="14.25">
       <c r="A24" s="44" t="s">
         <v>0</v>
       </c>
@@ -5666,7 +5886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2" customFormat="1" ht="14.25">
       <c r="A25" s="44" t="s">
         <v>0</v>
       </c>
@@ -5674,7 +5894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:2">
+    <row r="26" spans="1:2" customFormat="1" ht="14.25">
       <c r="A26" s="44" t="s">
         <v>0</v>
       </c>
@@ -5682,11 +5902,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="13.5" spans="1:2">
+    <row r="27" spans="1:2" customFormat="1" ht="13.5">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:2">
+    <row r="28" spans="1:2" customFormat="1" ht="14.25">
       <c r="A28" s="44" t="s">
         <v>0</v>
       </c>
@@ -5694,7 +5914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:2">
+    <row r="29" spans="1:2" customFormat="1" ht="14.25">
       <c r="A29" s="44" t="s">
         <v>0</v>
       </c>
@@ -5702,7 +5922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:2">
+    <row r="30" spans="1:2" customFormat="1" ht="14.25">
       <c r="A30" s="44" t="s">
         <v>0</v>
       </c>
@@ -5710,7 +5930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2" customFormat="1" ht="14.25">
       <c r="A31" s="44" t="s">
         <v>0</v>
       </c>
@@ -5718,7 +5938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2" customFormat="1" ht="14.25">
       <c r="A32" s="44" t="s">
         <v>0</v>
       </c>
@@ -5726,7 +5946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2" customFormat="1" ht="14.25">
       <c r="A33" s="44" t="s">
         <v>0</v>
       </c>
@@ -5734,7 +5954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2" customFormat="1" ht="14.25">
       <c r="A34" s="44" t="s">
         <v>0</v>
       </c>
@@ -5742,7 +5962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2" customFormat="1" ht="14.25">
       <c r="A35" s="44" t="s">
         <v>0</v>
       </c>
@@ -5750,7 +5970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2" customFormat="1" ht="14.25">
       <c r="A36" s="44" t="s">
         <v>0</v>
       </c>
@@ -5758,7 +5978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:2">
+    <row r="37" spans="1:2" customFormat="1" ht="14.25">
       <c r="A37" s="44" t="s">
         <v>0</v>
       </c>
@@ -5766,7 +5986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2" customFormat="1" ht="14.25">
       <c r="A38" s="44" t="s">
         <v>0</v>
       </c>
@@ -5774,7 +5994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2" customFormat="1" ht="14.25">
       <c r="A39" s="44" t="s">
         <v>0</v>
       </c>
@@ -5782,7 +6002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2" customFormat="1" ht="14.25">
       <c r="A40" s="44" t="s">
         <v>0</v>
       </c>
@@ -5790,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2" customFormat="1" ht="14.25">
       <c r="A41" s="44" t="s">
         <v>0</v>
       </c>
@@ -5798,7 +6018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2" customFormat="1" ht="14.25">
       <c r="A42" s="44" t="s">
         <v>0</v>
       </c>
@@ -5806,7 +6026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2" customFormat="1" ht="14.25">
       <c r="A43" s="44" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +6034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2" customFormat="1" ht="14.25">
       <c r="A44" s="44" t="s">
         <v>0</v>
       </c>
@@ -5822,7 +6042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2" customFormat="1" ht="14.25">
       <c r="A45" s="44" t="s">
         <v>0</v>
       </c>
@@ -5830,7 +6050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2" customFormat="1" ht="14.25">
       <c r="A46" s="44" t="s">
         <v>0</v>
       </c>
@@ -5838,7 +6058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2" customFormat="1" ht="14.25">
       <c r="A47" s="44" t="s">
         <v>0</v>
       </c>
@@ -5846,7 +6066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2" customFormat="1" ht="14.25">
       <c r="A48" s="44" t="s">
         <v>0</v>
       </c>
@@ -5854,7 +6074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:2">
+    <row r="49" spans="1:8" customFormat="1" ht="14.25">
       <c r="A49" s="44" t="s">
         <v>0</v>
       </c>
@@ -5862,7 +6082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:2">
+    <row r="50" spans="1:8" customFormat="1" ht="14.25">
       <c r="A50" s="44" t="s">
         <v>0</v>
       </c>
@@ -5870,7 +6090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:2">
+    <row r="51" spans="1:8" customFormat="1" ht="14.25">
       <c r="A51" s="44" t="s">
         <v>0</v>
       </c>
@@ -5878,7 +6098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:2">
+    <row r="52" spans="1:8" customFormat="1" ht="14.25">
       <c r="A52" s="44" t="s">
         <v>0</v>
       </c>
@@ -5886,7 +6106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:2">
+    <row r="53" spans="1:8" customFormat="1" ht="14.25">
       <c r="A53" s="44" t="s">
         <v>0</v>
       </c>
@@ -5894,7 +6114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:2">
+    <row r="54" spans="1:8" customFormat="1" ht="14.25">
       <c r="A54" s="44" t="s">
         <v>0</v>
       </c>
@@ -5902,13 +6122,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="13.5"/>
-    <row r="56" customFormat="1" ht="13.5"/>
-    <row r="57" customFormat="1" ht="13.5" spans="1:2">
+    <row r="55" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="56" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="57" spans="1:8" customFormat="1" ht="13.5">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
     </row>
-    <row r="58" customFormat="1" ht="14.25" spans="1:8">
+    <row r="58" spans="1:8" customFormat="1" ht="14.25">
       <c r="A58" s="44" t="s">
         <v>0</v>
       </c>
@@ -5921,7 +6141,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" customFormat="1" ht="14.25" spans="1:8">
+    <row r="59" spans="1:8" customFormat="1" ht="14.25">
       <c r="A59" s="44" t="s">
         <v>0</v>
       </c>
@@ -5935,7 +6155,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" customFormat="1" ht="14.25" spans="1:8">
+    <row r="60" spans="1:8" customFormat="1" ht="14.25">
       <c r="A60" s="44" t="s">
         <v>0</v>
       </c>
@@ -5949,7 +6169,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:8">
+    <row r="61" spans="1:8" customFormat="1" ht="14.25">
       <c r="A61" s="44" t="s">
         <v>0</v>
       </c>
@@ -5963,7 +6183,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" customFormat="1" ht="13.5" spans="1:8">
+    <row r="62" spans="1:8" customFormat="1" ht="13.5">
       <c r="A62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -5972,10 +6192,8 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A63" s="44" t="s">
-        <v>0</v>
-      </c>
+    <row r="63" spans="1:8" customFormat="1" ht="14.25">
+      <c r="A63" s="44"/>
       <c r="B63" t="s">
         <v>51</v>
       </c>
@@ -5986,7 +6204,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" customFormat="1" ht="14.25" spans="1:8">
+    <row r="64" spans="1:8" customFormat="1" ht="14.25">
       <c r="A64" s="44" t="s">
         <v>0</v>
       </c>
@@ -6000,7 +6218,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" customFormat="1" ht="14.25" spans="1:8">
+    <row r="65" spans="1:19" customFormat="1" ht="14.25">
       <c r="A65" s="44" t="s">
         <v>0</v>
       </c>
@@ -6014,7 +6232,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" customFormat="1" ht="14.25" spans="1:8">
+    <row r="66" spans="1:19" customFormat="1" ht="14.25">
       <c r="A66" s="44" t="s">
         <v>0</v>
       </c>
@@ -6028,7 +6246,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" customFormat="1" ht="14.25" spans="1:8">
+    <row r="67" spans="1:19" customFormat="1" ht="14.25">
       <c r="A67" s="44" t="s">
         <v>0</v>
       </c>
@@ -6042,7 +6260,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" customFormat="1" ht="14.25" spans="1:2">
+    <row r="68" spans="1:19" customFormat="1" ht="14.25">
       <c r="A68" s="44" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" s="9" customFormat="1" spans="1:7">
+    <row r="69" spans="1:19">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -6059,7 +6277,7 @@
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" s="9" customFormat="1" spans="1:7">
+    <row r="70" spans="1:19">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -6068,7 +6286,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" customFormat="1" ht="13.5" spans="1:7">
+    <row r="71" spans="1:19" customFormat="1" ht="13.5">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -6077,7 +6295,7 @@
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" s="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="72" spans="1:19" s="16" customFormat="1" ht="14.25">
       <c r="A72" s="35" t="s">
         <v>57</v>
       </c>
@@ -6085,7 +6303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" s="16" customFormat="1" spans="2:19">
+    <row r="73" spans="1:19" s="16" customFormat="1">
       <c r="B73" s="36" t="s">
         <v>59</v>
       </c>
@@ -6141,7 +6359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" s="16" customFormat="1" spans="2:19">
+    <row r="74" spans="1:19" s="16" customFormat="1">
       <c r="B74" s="20" t="s">
         <v>61</v>
       </c>
@@ -6197,7 +6415,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" s="16" customFormat="1" spans="2:19">
+    <row r="75" spans="1:19" s="16" customFormat="1">
       <c r="B75" s="22" t="s">
         <v>79</v>
       </c>
@@ -6253,7 +6471,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" s="16" customFormat="1" spans="2:19">
+    <row r="76" spans="1:19" s="16" customFormat="1">
       <c r="B76" s="22" t="s">
         <v>85</v>
       </c>
@@ -6309,7 +6527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" s="16" customFormat="1" spans="2:19">
+    <row r="77" spans="1:19" s="16" customFormat="1">
       <c r="B77" s="22" t="s">
         <v>88</v>
       </c>
@@ -6365,7 +6583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" s="16" customFormat="1" spans="2:19">
+    <row r="78" spans="1:19" s="16" customFormat="1">
       <c r="B78" s="22" t="s">
         <v>91</v>
       </c>
@@ -6421,7 +6639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" s="16" customFormat="1" spans="2:19">
+    <row r="79" spans="1:19" s="16" customFormat="1">
       <c r="B79" s="22" t="s">
         <v>95</v>
       </c>
@@ -6477,7 +6695,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" s="16" customFormat="1" spans="2:19">
+    <row r="80" spans="1:19" s="16" customFormat="1">
       <c r="B80" s="22" t="s">
         <v>98</v>
       </c>
@@ -6533,7 +6751,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" s="16" customFormat="1" spans="2:19">
+    <row r="81" spans="1:239" s="16" customFormat="1">
       <c r="B81" s="22" t="s">
         <v>100</v>
       </c>
@@ -6589,8 +6807,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" s="16" customFormat="1"/>
-    <row r="83" s="9" customFormat="1" spans="1:7">
+    <row r="82" spans="1:239" s="16" customFormat="1"/>
+    <row r="83" spans="1:239">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -6599,7 +6817,7 @@
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" customFormat="1" ht="13.5" spans="1:7">
+    <row r="84" spans="1:239" customFormat="1" ht="13.5">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -6608,7 +6826,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" s="24" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="85" spans="1:239" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A85" s="25" t="s">
         <v>57</v>
       </c>
@@ -6616,7 +6834,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" s="24" customFormat="1" ht="13.5" spans="2:71">
+    <row r="86" spans="1:239" s="24" customFormat="1" ht="13.5">
       <c r="B86" s="26" t="s">
         <v>104</v>
       </c>
@@ -6690,7 +6908,7 @@
       <c r="BR86" s="27"/>
       <c r="BS86" s="27"/>
     </row>
-    <row r="87" s="24" customFormat="1" ht="13.5" spans="1:74">
+    <row r="87" spans="1:239" s="24" customFormat="1" ht="13.5">
       <c r="A87" s="28"/>
       <c r="B87" s="29" t="s">
         <v>62</v>
@@ -6912,7 +7130,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" s="24" customFormat="1" ht="13.5" spans="1:239">
+    <row r="88" spans="1:239" s="24" customFormat="1" ht="13.5">
       <c r="A88" s="32"/>
       <c r="B88" s="33" t="s">
         <v>80</v>
@@ -7299,7 +7517,7 @@
       <c r="ID88" s="28"/>
       <c r="IE88" s="28"/>
     </row>
-    <row r="89" customFormat="1" ht="13.5" spans="1:239">
+    <row r="89" spans="1:239" customFormat="1" ht="13.5">
       <c r="A89" s="28"/>
       <c r="B89" s="33" t="s">
         <v>92</v>
@@ -7686,7 +7904,7 @@
       <c r="ID89" s="28"/>
       <c r="IE89" s="28"/>
     </row>
-    <row r="90" customFormat="1" ht="13.5" spans="1:239">
+    <row r="90" spans="1:239" customFormat="1" ht="13.5">
       <c r="A90" s="34"/>
       <c r="B90" s="33" t="s">
         <v>92</v>
@@ -8073,7 +8291,7 @@
       <c r="ID90" s="28"/>
       <c r="IE90" s="28"/>
     </row>
-    <row r="91" customFormat="1" ht="13.5" spans="1:239">
+    <row r="91" spans="1:239" customFormat="1" ht="13.5">
       <c r="A91" s="34"/>
       <c r="B91" s="33" t="s">
         <v>80</v>
@@ -8460,7 +8678,7 @@
       <c r="ID91" s="28"/>
       <c r="IE91" s="28"/>
     </row>
-    <row r="92" customFormat="1" ht="13.5" spans="1:239">
+    <row r="92" spans="1:239" customFormat="1" ht="13.5">
       <c r="A92" s="34"/>
       <c r="B92" s="33" t="s">
         <v>80</v>
@@ -8847,7 +9065,7 @@
       <c r="ID92" s="28"/>
       <c r="IE92" s="28"/>
     </row>
-    <row r="93" customFormat="1" ht="13.5" spans="1:239">
+    <row r="93" spans="1:239" customFormat="1" ht="13.5">
       <c r="A93" s="34"/>
       <c r="B93" s="33" t="s">
         <v>92</v>
@@ -9234,7 +9452,7 @@
       <c r="ID93" s="28"/>
       <c r="IE93" s="28"/>
     </row>
-    <row r="94" customFormat="1" ht="13.5" spans="1:239">
+    <row r="94" spans="1:239" customFormat="1" ht="13.5">
       <c r="A94" s="34"/>
       <c r="B94" s="33" t="s">
         <v>92</v>
@@ -9621,7 +9839,7 @@
       <c r="ID94" s="28"/>
       <c r="IE94" s="28"/>
     </row>
-    <row r="95" customFormat="1" ht="13.5" spans="1:239">
+    <row r="95" spans="1:239" customFormat="1" ht="13.5">
       <c r="A95" s="34"/>
       <c r="B95" s="33" t="s">
         <v>80</v>
@@ -10008,7 +10226,7 @@
       <c r="ID95" s="28"/>
       <c r="IE95" s="28"/>
     </row>
-    <row r="96" customFormat="1" ht="13.5" spans="1:7">
+    <row r="96" spans="1:239" customFormat="1" ht="13.5">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -10017,7 +10235,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="100" ht="14.25" spans="1:10">
+    <row r="100" spans="1:10" ht="14.25">
       <c r="A100" s="35" t="s">
         <v>57</v>
       </c>
@@ -10033,7 +10251,7 @@
       <c r="I100" s="16"/>
       <c r="J100" s="16"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="1:10">
       <c r="B101" s="36" t="s">
         <v>224</v>
       </c>
@@ -10302,7 +10520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" s="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="112" spans="1:10" s="16" customFormat="1" ht="14.25">
       <c r="A112" s="35" t="s">
         <v>57</v>
       </c>
@@ -10310,7 +10528,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" s="16" customFormat="1" spans="2:13">
+    <row r="113" spans="1:35" s="16" customFormat="1">
       <c r="B113" s="36" t="s">
         <v>232</v>
       </c>
@@ -10348,7 +10566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" s="16" customFormat="1" spans="2:13">
+    <row r="114" spans="1:35" s="16" customFormat="1">
       <c r="B114" s="20" t="s">
         <v>61</v>
       </c>
@@ -10386,7 +10604,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" s="16" customFormat="1" spans="2:13">
+    <row r="115" spans="1:35" s="16" customFormat="1">
       <c r="B115" s="22" t="s">
         <v>79</v>
       </c>
@@ -10424,7 +10642,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" s="16" customFormat="1" spans="2:13">
+    <row r="116" spans="1:35" s="16" customFormat="1">
       <c r="B116" s="22" t="s">
         <v>85</v>
       </c>
@@ -10462,7 +10680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" s="16" customFormat="1" spans="2:13">
+    <row r="117" spans="1:35" s="16" customFormat="1">
       <c r="B117" s="22" t="s">
         <v>88</v>
       </c>
@@ -10500,8 +10718,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" s="16" customFormat="1"/>
-    <row r="121" ht="13.5" spans="2:35">
+    <row r="118" spans="1:35" s="16" customFormat="1"/>
+    <row r="121" spans="1:35" ht="13.5">
       <c r="B121" s="34"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -10537,7 +10755,7 @@
       <c r="AH121" s="28"/>
       <c r="AI121" s="28"/>
     </row>
-    <row r="122" ht="13.5" spans="2:35">
+    <row r="122" spans="1:35" ht="13.5">
       <c r="B122" s="19"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -10573,7 +10791,7 @@
       <c r="AH122" s="28"/>
       <c r="AI122" s="28"/>
     </row>
-    <row r="123" ht="14.25" spans="1:35">
+    <row r="123" spans="1:35" ht="14.25">
       <c r="A123" s="35" t="s">
         <v>57</v>
       </c>
@@ -10614,7 +10832,7 @@
       <c r="AH123" s="28"/>
       <c r="AI123" s="28"/>
     </row>
-    <row r="124" ht="13.5" spans="2:35">
+    <row r="124" spans="1:35" ht="13.5">
       <c r="B124" s="36" t="s">
         <v>247</v>
       </c>
@@ -10652,7 +10870,7 @@
       <c r="AH124" s="28"/>
       <c r="AI124" s="28"/>
     </row>
-    <row r="125" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="125" spans="1:35" ht="13.5">
       <c r="B125" s="21" t="s">
         <v>62</v>
       </c>
@@ -10702,7 +10920,7 @@
       <c r="AH125" s="28"/>
       <c r="AI125" s="28"/>
     </row>
-    <row r="126" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="126" spans="1:35" ht="13.5">
       <c r="B126" s="22" t="s">
         <v>80</v>
       </c>
@@ -10752,7 +10970,7 @@
       <c r="AH126" s="28"/>
       <c r="AI126" s="28"/>
     </row>
-    <row r="127" ht="13.5" spans="2:35">
+    <row r="127" spans="1:35" ht="13.5">
       <c r="B127" s="34"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -10788,7 +11006,7 @@
       <c r="AH127" s="28"/>
       <c r="AI127" s="28"/>
     </row>
-    <row r="128" ht="13.5" spans="2:35">
+    <row r="128" spans="1:35" ht="13.5">
       <c r="B128" s="19"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -10824,7 +11042,7 @@
       <c r="AH128" s="28"/>
       <c r="AI128" s="28"/>
     </row>
-    <row r="129" ht="13.5" spans="2:35">
+    <row r="129" spans="1:36" ht="13.5">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -10860,7 +11078,7 @@
       <c r="AH129" s="28"/>
       <c r="AI129" s="28"/>
     </row>
-    <row r="131" ht="14.25" spans="1:2">
+    <row r="131" spans="1:36" ht="14.25">
       <c r="A131" s="18" t="s">
         <v>57</v>
       </c>
@@ -10868,13 +11086,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:36">
       <c r="A132" s="39"/>
       <c r="B132" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="133" s="9" customFormat="1" spans="2:36">
+    <row r="133" spans="1:36">
       <c r="B133" s="20" t="s">
         <v>61</v>
       </c>
@@ -10979,7 +11197,7 @@
       </c>
       <c r="AJ133" s="21"/>
     </row>
-    <row r="134" s="9" customFormat="1" spans="2:35">
+    <row r="134" spans="1:36">
       <c r="B134" s="22">
         <v>1</v>
       </c>
@@ -11083,7 +11301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" s="9" customFormat="1" spans="2:35">
+    <row r="135" spans="1:36">
       <c r="B135" s="22">
         <v>2</v>
       </c>
@@ -11187,7 +11405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" s="9" customFormat="1" spans="2:35">
+    <row r="136" spans="1:36">
       <c r="B136" s="22">
         <v>3</v>
       </c>
@@ -11291,7 +11509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" s="9" customFormat="1" spans="2:35">
+    <row r="137" spans="1:36">
       <c r="B137" s="22">
         <v>4</v>
       </c>
@@ -11395,7 +11613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" s="9" customFormat="1" spans="2:35">
+    <row r="138" spans="1:36">
       <c r="B138" s="22">
         <v>5</v>
       </c>
@@ -11499,7 +11717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" s="9" customFormat="1" spans="2:35">
+    <row r="139" spans="1:36">
       <c r="B139" s="22">
         <v>6</v>
       </c>
@@ -11603,7 +11821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" s="9" customFormat="1" spans="2:35">
+    <row r="140" spans="1:36">
       <c r="B140" s="22">
         <v>7</v>
       </c>
@@ -11707,7 +11925,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" s="9" customFormat="1" spans="2:35">
+    <row r="141" spans="1:36">
       <c r="B141" s="22">
         <v>8</v>
       </c>
@@ -11811,7 +12029,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" s="9" customFormat="1" spans="2:35">
+    <row r="142" spans="1:36">
       <c r="B142" s="22">
         <v>9</v>
       </c>
@@ -11915,7 +12133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" s="9" customFormat="1" spans="2:35">
+    <row r="143" spans="1:36">
       <c r="B143" s="22">
         <v>10</v>
       </c>
@@ -12019,7 +12237,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" s="9" customFormat="1" spans="2:35">
+    <row r="144" spans="1:36">
       <c r="B144" s="22">
         <v>11</v>
       </c>
@@ -12123,7 +12341,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" s="9" customFormat="1" spans="2:35">
+    <row r="145" spans="1:239">
       <c r="B145" s="22">
         <v>12</v>
       </c>
@@ -12227,7 +12445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" s="9" customFormat="1" spans="2:35">
+    <row r="146" spans="1:239">
       <c r="B146" s="22">
         <v>13</v>
       </c>
@@ -12331,7 +12549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" s="9" customFormat="1" spans="2:35">
+    <row r="147" spans="1:239">
       <c r="B147" s="22">
         <v>14</v>
       </c>
@@ -12435,7 +12653,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" s="9" customFormat="1" spans="2:35">
+    <row r="148" spans="1:239">
       <c r="B148" s="22">
         <v>15</v>
       </c>
@@ -12539,7 +12757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="2:35">
+    <row r="149" spans="1:239">
       <c r="B149" s="22">
         <v>390</v>
       </c>
@@ -12643,7 +12861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" ht="13.5" spans="2:35">
+    <row r="150" spans="1:239" ht="13.5">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -12679,7 +12897,7 @@
       <c r="AH150" s="28"/>
       <c r="AI150" s="28"/>
     </row>
-    <row r="151" ht="13.5" spans="2:35">
+    <row r="151" spans="1:239" ht="13.5">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -12715,7 +12933,7 @@
       <c r="AH151" s="28"/>
       <c r="AI151" s="28"/>
     </row>
-    <row r="152" ht="13.5" spans="2:35">
+    <row r="152" spans="1:239" ht="13.5">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -12751,7 +12969,7 @@
       <c r="AH152" s="28"/>
       <c r="AI152" s="28"/>
     </row>
-    <row r="153" ht="13.5" spans="2:35">
+    <row r="153" spans="1:239" ht="13.5">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -12787,7 +13005,7 @@
       <c r="AH153" s="28"/>
       <c r="AI153" s="28"/>
     </row>
-    <row r="154" ht="13.5" spans="2:35">
+    <row r="154" spans="1:239" ht="13.5">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -12823,7 +13041,7 @@
       <c r="AH154" s="28"/>
       <c r="AI154" s="28"/>
     </row>
-    <row r="155" ht="13.5" spans="2:35">
+    <row r="155" spans="1:239" ht="13.5">
       <c r="B155" s="34"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -12859,7 +13077,7 @@
       <c r="AH155" s="28"/>
       <c r="AI155" s="28"/>
     </row>
-    <row r="156" ht="14.25" spans="1:35">
+    <row r="156" spans="1:239" ht="14.25">
       <c r="A156" s="18" t="s">
         <v>57</v>
       </c>
@@ -12900,7 +13118,7 @@
       <c r="AH156" s="28"/>
       <c r="AI156" s="28"/>
     </row>
-    <row r="157" ht="13.5" spans="1:35">
+    <row r="157" spans="1:239" ht="13.5">
       <c r="A157" s="39"/>
       <c r="B157" s="19" t="s">
         <v>281</v>
@@ -12939,7 +13157,7 @@
       <c r="AH157" s="28"/>
       <c r="AI157" s="28"/>
     </row>
-    <row r="158" ht="13.5" spans="1:239">
+    <row r="158" spans="1:239" ht="13.5">
       <c r="A158" s="28"/>
       <c r="B158" s="20" t="s">
         <v>105</v>
@@ -13656,7 +13874,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="159" ht="13.5" spans="1:239">
+    <row r="159" spans="1:239" ht="13.5">
       <c r="A159" s="28"/>
       <c r="B159" s="22">
         <v>49</v>
@@ -14373,7 +14591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" ht="13.5" spans="1:239">
+    <row r="160" spans="1:239" ht="13.5">
       <c r="A160" s="28"/>
       <c r="B160" s="22">
         <v>50</v>
@@ -15090,7 +15308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" ht="13.5" spans="1:239">
+    <row r="161" spans="1:239" ht="13.5">
       <c r="A161" s="28"/>
       <c r="B161" s="22">
         <v>51</v>
@@ -15807,7 +16025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="162" ht="13.5" spans="1:239">
+    <row r="162" spans="1:239" ht="13.5">
       <c r="A162" s="28"/>
       <c r="B162" s="22">
         <v>52</v>
@@ -16524,7 +16742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" ht="13.5" spans="1:239">
+    <row r="163" spans="1:239" ht="13.5">
       <c r="A163" s="28"/>
       <c r="B163" s="22">
         <v>53</v>
@@ -17241,7 +17459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" ht="13.5" spans="1:239">
+    <row r="164" spans="1:239" ht="13.5">
       <c r="A164" s="28"/>
       <c r="B164" s="22">
         <v>54</v>
@@ -17958,7 +18176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" ht="13.5" spans="1:239">
+    <row r="165" spans="1:239" ht="13.5">
       <c r="A165" s="28"/>
       <c r="B165" s="22">
         <v>55</v>
@@ -18675,7 +18893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" ht="13.5" spans="1:239">
+    <row r="166" spans="1:239" ht="13.5">
       <c r="A166" s="28"/>
       <c r="B166" s="22">
         <v>56</v>
@@ -19392,7 +19610,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" ht="13.5" spans="1:239">
+    <row r="167" spans="1:239" ht="13.5">
       <c r="A167" s="28"/>
       <c r="B167" s="22">
         <v>57</v>
@@ -20109,7 +20327,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" ht="13.5" spans="1:239">
+    <row r="168" spans="1:239" ht="13.5">
       <c r="A168" s="28"/>
       <c r="B168" s="22">
         <v>58</v>
@@ -20826,7 +21044,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" ht="13.5" spans="1:239">
+    <row r="169" spans="1:239" ht="13.5">
       <c r="A169" s="28"/>
       <c r="B169" s="22">
         <v>59</v>
@@ -21543,7 +21761,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" ht="13.5" spans="1:239">
+    <row r="170" spans="1:239" ht="13.5">
       <c r="A170" s="28"/>
       <c r="B170" s="22">
         <v>60</v>
@@ -22260,7 +22478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" ht="13.5" spans="1:239">
+    <row r="171" spans="1:239" ht="13.5">
       <c r="A171" s="28"/>
       <c r="B171" s="22">
         <v>61</v>
@@ -22977,7 +23195,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" ht="13.5" spans="1:239">
+    <row r="172" spans="1:239" ht="13.5">
       <c r="A172" s="28"/>
       <c r="B172" s="22">
         <v>62</v>
@@ -23694,7 +23912,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" ht="13.5" spans="1:239">
+    <row r="173" spans="1:239" ht="13.5">
       <c r="A173" s="28"/>
       <c r="B173" s="22">
         <v>63</v>
@@ -24411,7 +24629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" ht="13.5" spans="1:239">
+    <row r="174" spans="1:239" ht="13.5">
       <c r="A174" s="28"/>
       <c r="B174" s="22">
         <v>65</v>
@@ -25128,7 +25346,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" ht="13.5" spans="1:239">
+    <row r="175" spans="1:239" ht="13.5">
       <c r="A175" s="28"/>
       <c r="B175" s="22">
         <v>66</v>
@@ -25845,7 +26063,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="176" ht="13.5" spans="1:239">
+    <row r="176" spans="1:239" ht="13.5">
       <c r="A176" s="28"/>
       <c r="B176" s="22">
         <v>67</v>
@@ -26562,7 +26780,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="177" ht="13.5" spans="1:239">
+    <row r="177" spans="1:239" ht="13.5">
       <c r="A177" s="28"/>
       <c r="B177" s="22">
         <v>68</v>
@@ -27279,7 +27497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" ht="13.5" spans="1:239">
+    <row r="178" spans="1:239" ht="13.5">
       <c r="A178" s="28"/>
       <c r="B178" s="22">
         <v>69</v>
@@ -27996,7 +28214,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="179" ht="13.5" spans="1:239">
+    <row r="179" spans="1:239" ht="13.5">
       <c r="A179" s="28"/>
       <c r="B179" s="22">
         <v>70</v>
@@ -28713,7 +28931,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="180" ht="13.5" spans="1:239">
+    <row r="180" spans="1:239" ht="13.5">
       <c r="A180" s="28"/>
       <c r="B180" s="22">
         <v>71</v>
@@ -29430,7 +29648,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" ht="13.5" spans="1:239">
+    <row r="181" spans="1:239" ht="13.5">
       <c r="A181" s="28"/>
       <c r="B181" s="22">
         <v>72</v>
@@ -30147,7 +30365,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="182" ht="13.5" spans="1:239">
+    <row r="182" spans="1:239" ht="13.5">
       <c r="A182" s="28"/>
       <c r="B182" s="22">
         <v>73</v>
@@ -30864,7 +31082,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="183" ht="13.5" spans="1:239">
+    <row r="183" spans="1:239" ht="13.5">
       <c r="A183" s="28"/>
       <c r="B183" s="22">
         <v>74</v>
@@ -31581,7 +31799,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="184" ht="13.5" spans="1:239">
+    <row r="184" spans="1:239" ht="13.5">
       <c r="A184" s="28"/>
       <c r="B184" s="22">
         <v>75</v>
@@ -32298,7 +32516,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="185" ht="13.5" spans="1:239">
+    <row r="185" spans="1:239" ht="13.5">
       <c r="A185" s="28"/>
       <c r="B185" s="22">
         <v>76</v>
@@ -33015,7 +33233,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="186" ht="13.5" spans="1:239">
+    <row r="186" spans="1:239" ht="13.5">
       <c r="A186" s="28"/>
       <c r="B186" s="22">
         <v>77</v>
@@ -33732,7 +33950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="187" ht="13.5" spans="1:239">
+    <row r="187" spans="1:239" ht="13.5">
       <c r="A187" s="28"/>
       <c r="B187" s="22">
         <v>78</v>
@@ -34449,7 +34667,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="188" ht="13.5" spans="1:239">
+    <row r="188" spans="1:239" ht="13.5">
       <c r="A188" s="28"/>
       <c r="B188" s="22">
         <v>79</v>
@@ -35166,7 +35384,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" ht="13.5" spans="1:239">
+    <row r="189" spans="1:239" ht="13.5">
       <c r="A189" s="28"/>
       <c r="B189" s="22">
         <v>80</v>
@@ -35883,7 +36101,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="190" ht="13.5" spans="2:104">
+    <row r="190" spans="1:239" ht="13.5">
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
       <c r="D190" s="28"/>
@@ -35920,7 +36138,7 @@
       <c r="AI190" s="28"/>
       <c r="CZ190" s="28"/>
     </row>
-    <row r="191" ht="13.5" spans="2:35">
+    <row r="191" spans="1:239" ht="13.5">
       <c r="B191" s="34"/>
       <c r="C191" s="28"/>
       <c r="D191" s="28"/>
@@ -35956,7 +36174,7 @@
       <c r="AH191" s="28"/>
       <c r="AI191" s="28"/>
     </row>
-    <row r="192" ht="13.5" spans="2:34">
+    <row r="192" spans="1:239" ht="13.5">
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
       <c r="D192" s="28"/>
@@ -35991,7 +36209,7 @@
       <c r="AG192" s="28"/>
       <c r="AH192" s="28"/>
     </row>
-    <row r="193" ht="13.5" spans="2:34">
+    <row r="193" spans="1:148" ht="13.5">
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
       <c r="D193" s="28"/>
@@ -36026,7 +36244,7 @@
       <c r="AG193" s="28"/>
       <c r="AH193" s="28"/>
     </row>
-    <row r="194" ht="13.5" spans="2:34">
+    <row r="194" spans="1:148" ht="13.5">
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
       <c r="D194" s="28"/>
@@ -36061,7 +36279,7 @@
       <c r="AG194" s="28"/>
       <c r="AH194" s="28"/>
     </row>
-    <row r="195" ht="13.5" spans="2:34">
+    <row r="195" spans="1:148" ht="13.5">
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
       <c r="D195" s="28"/>
@@ -36096,7 +36314,7 @@
       <c r="AG195" s="28"/>
       <c r="AH195" s="28"/>
     </row>
-    <row r="196" ht="14.25" spans="1:34">
+    <row r="196" spans="1:148" ht="14.25">
       <c r="A196" s="18" t="s">
         <v>57</v>
       </c>
@@ -36136,13 +36354,13 @@
       <c r="AG196" s="28"/>
       <c r="AH196" s="28"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:148">
       <c r="A197" s="39"/>
       <c r="B197" s="19" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="198" spans="2:148">
+    <row r="198" spans="1:148">
       <c r="B198" s="21" t="s">
         <v>62</v>
       </c>
@@ -36571,7 +36789,7 @@
       <c r="EQ198" s="21"/>
       <c r="ER198" s="21"/>
     </row>
-    <row r="199" spans="2:141">
+    <row r="199" spans="1:148">
       <c r="B199" s="22" t="s">
         <v>976</v>
       </c>
@@ -36989,7 +37207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="200" spans="2:141">
+    <row r="200" spans="1:148">
       <c r="B200" s="22" t="s">
         <v>988</v>
       </c>
@@ -37409,7 +37627,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="2:141">
+    <row r="201" spans="1:148">
       <c r="B201" s="22" t="s">
         <v>994</v>
       </c>
@@ -37827,7 +38045,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="202" spans="2:141">
+    <row r="202" spans="1:148">
       <c r="B202" s="22" t="s">
         <v>994</v>
       </c>
@@ -38245,7 +38463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="2:141">
+    <row r="203" spans="1:148">
       <c r="B203" s="22" t="s">
         <v>994</v>
       </c>
@@ -38663,7 +38881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="204" spans="2:141">
+    <row r="204" spans="1:148">
       <c r="B204" s="22" t="s">
         <v>994</v>
       </c>
@@ -39081,7 +39299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="2:141">
+    <row r="205" spans="1:148">
       <c r="B205" s="22" t="s">
         <v>994</v>
       </c>
@@ -39499,7 +39717,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="206" spans="2:141">
+    <row r="206" spans="1:148">
       <c r="B206" s="22" t="s">
         <v>994</v>
       </c>
@@ -39917,7 +40135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="207" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="207" spans="1:148" s="42" customFormat="1" ht="13.5">
       <c r="B207" s="22" t="s">
         <v>994</v>
       </c>
@@ -40340,7 +40558,7 @@
       <c r="EO207" s="9"/>
       <c r="EP207" s="9"/>
     </row>
-    <row r="208" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="208" spans="1:148" s="42" customFormat="1" ht="13.5">
       <c r="B208" s="22" t="s">
         <v>994</v>
       </c>
@@ -40763,7 +40981,7 @@
       <c r="EO208" s="9"/>
       <c r="EP208" s="9"/>
     </row>
-    <row r="209" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="209" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B209" s="22" t="s">
         <v>994</v>
       </c>
@@ -41186,7 +41404,7 @@
       <c r="EO209" s="9"/>
       <c r="EP209" s="9"/>
     </row>
-    <row r="210" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="210" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B210" s="22" t="s">
         <v>994</v>
       </c>
@@ -41609,7 +41827,7 @@
       <c r="EO210" s="9"/>
       <c r="EP210" s="9"/>
     </row>
-    <row r="211" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="211" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B211" s="22" t="s">
         <v>994</v>
       </c>
@@ -42032,7 +42250,7 @@
       <c r="EO211" s="9"/>
       <c r="EP211" s="9"/>
     </row>
-    <row r="212" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="212" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B212" s="22" t="s">
         <v>994</v>
       </c>
@@ -42459,7 +42677,7 @@
       <c r="EO212" s="9"/>
       <c r="EP212" s="9"/>
     </row>
-    <row r="213" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="213" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B213" s="22" t="s">
         <v>994</v>
       </c>
@@ -42882,7 +43100,7 @@
       <c r="EO213" s="9"/>
       <c r="EP213" s="9"/>
     </row>
-    <row r="214" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="214" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B214" s="22" t="s">
         <v>994</v>
       </c>
@@ -43305,7 +43523,7 @@
       <c r="EO214" s="9"/>
       <c r="EP214" s="9"/>
     </row>
-    <row r="215" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="215" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B215" s="22" t="s">
         <v>994</v>
       </c>
@@ -43728,7 +43946,7 @@
       <c r="EO215" s="9"/>
       <c r="EP215" s="9"/>
     </row>
-    <row r="216" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="216" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B216" s="22" t="s">
         <v>994</v>
       </c>
@@ -44151,7 +44369,7 @@
       <c r="EO216" s="9"/>
       <c r="EP216" s="9"/>
     </row>
-    <row r="217" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="217" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B217" s="22" t="s">
         <v>994</v>
       </c>
@@ -44574,7 +44792,7 @@
       <c r="EO217" s="9"/>
       <c r="EP217" s="9"/>
     </row>
-    <row r="218" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="218" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B218" s="22" t="s">
         <v>994</v>
       </c>
@@ -44997,7 +45215,7 @@
       <c r="EO218" s="9"/>
       <c r="EP218" s="9"/>
     </row>
-    <row r="219" s="42" customFormat="1" ht="13.5" spans="2:146">
+    <row r="219" spans="2:146" s="42" customFormat="1" ht="13.5">
       <c r="B219" s="22" t="s">
         <v>994</v>
       </c>
@@ -45420,7 +45638,7 @@
       <c r="EO219" s="9"/>
       <c r="EP219" s="9"/>
     </row>
-    <row r="225" ht="14.25" spans="1:131">
+    <row r="225" spans="1:131" ht="14.25">
       <c r="A225" s="18" t="s">
         <v>57</v>
       </c>
@@ -45429,13 +45647,13 @@
       </c>
       <c r="EA225" s="43"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:131">
       <c r="A226" s="39"/>
       <c r="B226" s="19" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="227" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="227" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B227" s="20" t="s">
         <v>61</v>
       </c>
@@ -45533,7 +45751,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="228" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="228" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B228" s="22">
         <v>1</v>
       </c>
@@ -45631,7 +45849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="229" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B229" s="22">
         <v>2</v>
       </c>
@@ -45729,7 +45947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="230" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B230" s="22">
         <v>101</v>
       </c>
@@ -45827,7 +46045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="231" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B231" s="22">
         <v>102</v>
       </c>
@@ -45925,7 +46143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="232" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B232" s="22">
         <v>103</v>
       </c>
@@ -46023,7 +46241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="233" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B233" s="22">
         <v>104</v>
       </c>
@@ -46121,7 +46339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="234" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B234" s="22">
         <v>105</v>
       </c>
@@ -46219,7 +46437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="235" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B235" s="22">
         <v>106</v>
       </c>
@@ -46317,7 +46535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="236" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B236" s="22">
         <v>107</v>
       </c>
@@ -46415,7 +46633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="237" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B237" s="22">
         <v>108</v>
       </c>
@@ -46513,7 +46731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="238" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B238" s="22">
         <v>109</v>
       </c>
@@ -46611,7 +46829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="239" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B239" s="22">
         <v>110</v>
       </c>
@@ -46709,7 +46927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="240" spans="1:131" s="43" customFormat="1" ht="12.75">
       <c r="B240" s="22">
         <v>111</v>
       </c>
@@ -46807,7 +47025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="241" spans="1:33" s="43" customFormat="1" ht="12.75">
       <c r="B241" s="22">
         <v>112</v>
       </c>
@@ -46905,7 +47123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="242" spans="1:33" s="43" customFormat="1" ht="12.75">
       <c r="B242" s="22">
         <v>113</v>
       </c>
@@ -47003,7 +47221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="243" spans="1:33" s="43" customFormat="1" ht="12.75">
       <c r="B243" s="22">
         <v>114</v>
       </c>
@@ -47101,7 +47319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="244" spans="1:33" s="43" customFormat="1" ht="12.75">
       <c r="B244" s="22">
         <v>115</v>
       </c>
@@ -47199,7 +47417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="245" spans="1:33" s="43" customFormat="1" ht="12.75">
       <c r="B245" s="22">
         <v>116</v>
       </c>
@@ -47297,7 +47515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="246" spans="1:33" s="43" customFormat="1" ht="12.75">
       <c r="B246" s="22">
         <v>117</v>
       </c>
@@ -47395,7 +47613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="247" spans="1:33" s="43" customFormat="1" ht="12.75">
       <c r="B247" s="22">
         <v>118</v>
       </c>
@@ -47493,7 +47711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" s="43" customFormat="1" ht="12.75" spans="2:33">
+    <row r="248" spans="1:33" s="43" customFormat="1" ht="12.75">
       <c r="B248" s="22">
         <v>119</v>
       </c>
@@ -47591,7 +47809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" ht="14.25" spans="1:2">
+    <row r="255" spans="1:33" ht="14.25">
       <c r="A255" s="18" t="s">
         <v>57</v>
       </c>
@@ -47599,13 +47817,13 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:33">
       <c r="A256" s="39"/>
       <c r="B256" s="19" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="257" spans="2:28">
+    <row r="257" spans="1:142">
       <c r="B257" s="20" t="s">
         <v>61</v>
       </c>
@@ -47688,7 +47906,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="258" ht="13.5" spans="1:142">
+    <row r="258" spans="1:142" ht="13.5">
       <c r="A258" s="42"/>
       <c r="B258" s="22">
         <v>118</v>
@@ -47886,7 +48104,7 @@
       <c r="EK258" s="42"/>
       <c r="EL258" s="42"/>
     </row>
-    <row r="259" ht="13.5" spans="1:142">
+    <row r="259" spans="1:142" ht="13.5">
       <c r="A259" s="42"/>
       <c r="B259" s="22">
         <v>119</v>
@@ -48084,7 +48302,7 @@
       <c r="EK259" s="42"/>
       <c r="EL259" s="42"/>
     </row>
-    <row r="260" ht="13.5" spans="1:142">
+    <row r="260" spans="1:142" ht="13.5">
       <c r="A260" s="42"/>
       <c r="B260" s="22">
         <v>120</v>
@@ -48282,7 +48500,7 @@
       <c r="EK260" s="42"/>
       <c r="EL260" s="42"/>
     </row>
-    <row r="261" ht="13.5" spans="1:142">
+    <row r="261" spans="1:142" ht="13.5">
       <c r="A261" s="42"/>
       <c r="B261" s="22">
         <v>121</v>
@@ -48480,7 +48698,7 @@
       <c r="EK261" s="42"/>
       <c r="EL261" s="42"/>
     </row>
-    <row r="262" ht="13.5" spans="1:142">
+    <row r="262" spans="1:142" ht="13.5">
       <c r="A262" s="42"/>
       <c r="B262" s="22">
         <v>122</v>
@@ -48678,7 +48896,7 @@
       <c r="EK262" s="42"/>
       <c r="EL262" s="42"/>
     </row>
-    <row r="263" ht="13.5" spans="1:142">
+    <row r="263" spans="1:142" ht="13.5">
       <c r="A263" s="42"/>
       <c r="B263" s="22">
         <v>123</v>
@@ -48876,7 +49094,7 @@
       <c r="EK263" s="42"/>
       <c r="EL263" s="42"/>
     </row>
-    <row r="264" ht="13.5" spans="1:142">
+    <row r="264" spans="1:142" ht="13.5">
       <c r="A264" s="42"/>
       <c r="B264" s="22">
         <v>124</v>
@@ -49074,7 +49292,7 @@
       <c r="EK264" s="42"/>
       <c r="EL264" s="42"/>
     </row>
-    <row r="265" ht="13.5" spans="1:142">
+    <row r="265" spans="1:142" ht="13.5">
       <c r="A265" s="42"/>
       <c r="B265" s="22">
         <v>125</v>
@@ -49272,7 +49490,7 @@
       <c r="EK265" s="42"/>
       <c r="EL265" s="42"/>
     </row>
-    <row r="266" ht="13.5" spans="1:142">
+    <row r="266" spans="1:142" ht="13.5">
       <c r="A266" s="42"/>
       <c r="B266" s="22">
         <v>126</v>
@@ -49470,7 +49688,7 @@
       <c r="EK266" s="42"/>
       <c r="EL266" s="42"/>
     </row>
-    <row r="267" ht="13.5" spans="1:142">
+    <row r="267" spans="1:142" ht="13.5">
       <c r="A267" s="42"/>
       <c r="B267" s="22">
         <v>127</v>
@@ -49668,7 +49886,7 @@
       <c r="EK267" s="42"/>
       <c r="EL267" s="42"/>
     </row>
-    <row r="268" ht="13.5" spans="1:142">
+    <row r="268" spans="1:142" ht="13.5">
       <c r="A268" s="42"/>
       <c r="B268" s="22">
         <v>128</v>
@@ -49866,7 +50084,7 @@
       <c r="EK268" s="42"/>
       <c r="EL268" s="42"/>
     </row>
-    <row r="269" ht="13.5" spans="1:142">
+    <row r="269" spans="1:142" ht="13.5">
       <c r="A269" s="42"/>
       <c r="B269" s="22">
         <v>129</v>
@@ -50064,7 +50282,7 @@
       <c r="EK269" s="42"/>
       <c r="EL269" s="42"/>
     </row>
-    <row r="270" ht="13.5" spans="1:142">
+    <row r="270" spans="1:142" ht="13.5">
       <c r="A270" s="42"/>
       <c r="B270" s="22">
         <v>130</v>
@@ -50262,7 +50480,7 @@
       <c r="EK270" s="42"/>
       <c r="EL270" s="42"/>
     </row>
-    <row r="271" ht="13.5" spans="1:142">
+    <row r="271" spans="1:142" ht="13.5">
       <c r="A271" s="42"/>
       <c r="B271" s="22">
         <v>160</v>
@@ -50460,7 +50678,7 @@
       <c r="EK271" s="42"/>
       <c r="EL271" s="42"/>
     </row>
-    <row r="272" ht="13.5" spans="1:142">
+    <row r="272" spans="1:142" ht="13.5">
       <c r="A272" s="42"/>
       <c r="B272" s="22">
         <v>161</v>
@@ -50658,7 +50876,7 @@
       <c r="EK272" s="42"/>
       <c r="EL272" s="42"/>
     </row>
-    <row r="273" ht="13.5" spans="1:142">
+    <row r="273" spans="1:142" ht="13.5">
       <c r="A273" s="42"/>
       <c r="B273" s="22">
         <v>162</v>
@@ -50856,7 +51074,7 @@
       <c r="EK273" s="42"/>
       <c r="EL273" s="42"/>
     </row>
-    <row r="274" ht="13.5" spans="1:142">
+    <row r="274" spans="1:142" ht="13.5">
       <c r="A274" s="42"/>
       <c r="B274" s="22">
         <v>163</v>
@@ -51054,7 +51272,7 @@
       <c r="EK274" s="42"/>
       <c r="EL274" s="42"/>
     </row>
-    <row r="275" ht="13.5" spans="1:142">
+    <row r="275" spans="1:142" ht="13.5">
       <c r="A275" s="42"/>
       <c r="B275" s="22">
         <v>164</v>
@@ -51252,7 +51470,7 @@
       <c r="EK275" s="42"/>
       <c r="EL275" s="42"/>
     </row>
-    <row r="276" ht="13.5" spans="1:142">
+    <row r="276" spans="1:142" ht="13.5">
       <c r="A276" s="42"/>
       <c r="B276" s="22">
         <v>165</v>
@@ -51450,7 +51668,7 @@
       <c r="EK276" s="42"/>
       <c r="EL276" s="42"/>
     </row>
-    <row r="277" ht="13.5" spans="1:142">
+    <row r="277" spans="1:142" ht="13.5">
       <c r="A277" s="42"/>
       <c r="B277" s="22">
         <v>166</v>
@@ -51648,7 +51866,7 @@
       <c r="EK277" s="42"/>
       <c r="EL277" s="42"/>
     </row>
-    <row r="278" ht="13.5" spans="1:142">
+    <row r="278" spans="1:142" ht="13.5">
       <c r="A278" s="42"/>
       <c r="B278" s="22">
         <v>167</v>
@@ -51846,7 +52064,7 @@
       <c r="EK278" s="42"/>
       <c r="EL278" s="42"/>
     </row>
-    <row r="284" ht="14.25" spans="1:2">
+    <row r="284" spans="1:142" ht="14.25">
       <c r="A284" s="18" t="s">
         <v>57</v>
       </c>
@@ -51854,12 +52072,12 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="1:142">
       <c r="B285" s="19" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="286" spans="2:10">
+    <row r="286" spans="1:142">
       <c r="B286" s="20" t="s">
         <v>61</v>
       </c>
@@ -51888,15 +52106,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="287" spans="2:10">
+    <row r="287" spans="1:142">
       <c r="B287" s="22">
         <v>1</v>
       </c>
       <c r="C287" s="23">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="D287" s="23">
-        <v>43147.2854976852</v>
+        <v>43147.285497685203</v>
       </c>
       <c r="E287" s="22">
         <v>0</v>
@@ -51917,7 +52135,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="292" ht="14.25" spans="1:2">
+    <row r="292" spans="1:13" ht="14.25">
       <c r="A292" s="18" t="s">
         <v>57</v>
       </c>
@@ -51925,12 +52143,12 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="1:13">
       <c r="B293" s="19" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="294" spans="2:11">
+    <row r="294" spans="1:13">
       <c r="B294" s="20" t="s">
         <v>61</v>
       </c>
@@ -51962,15 +52180,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="295" spans="2:11">
+    <row r="295" spans="1:13">
       <c r="B295" s="22">
         <v>1</v>
       </c>
       <c r="C295" s="23">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D295" s="23">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E295" s="22">
         <v>0</v>
@@ -51994,15 +52212,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="296" spans="2:11">
+    <row r="296" spans="1:13">
       <c r="B296" s="22">
         <v>2</v>
       </c>
       <c r="C296" s="23">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="D296" s="23">
-        <v>43197.2650925926</v>
+        <v>43197.265092592599</v>
       </c>
       <c r="E296" s="22">
         <v>0</v>
@@ -52026,15 +52244,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="297" spans="2:11">
+    <row r="297" spans="1:13">
       <c r="B297" s="22">
         <v>3</v>
       </c>
       <c r="C297" s="23">
-        <v>43206.5345486111</v>
+        <v>43206.534548611096</v>
       </c>
       <c r="D297" s="23">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E297" s="22">
         <v>0</v>
@@ -52058,15 +52276,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="298" spans="2:11">
+    <row r="298" spans="1:13">
       <c r="B298" s="22">
         <v>4</v>
       </c>
       <c r="C298" s="23">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="D298" s="23">
-        <v>43218.3041666667</v>
+        <v>43218.304166666698</v>
       </c>
       <c r="E298" s="22">
         <v>0</v>
@@ -52090,11 +52308,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="301" ht="12.75" spans="3:4">
+    <row r="301" spans="1:13" ht="12.75">
       <c r="C301" s="17"/>
       <c r="D301" s="17"/>
     </row>
-    <row r="302" ht="14.25" spans="1:2">
+    <row r="302" spans="1:13" ht="14.25">
       <c r="A302" s="18" t="s">
         <v>57</v>
       </c>
@@ -52102,14 +52320,14 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="303" ht="12.75" spans="2:4">
+    <row r="303" spans="1:13" ht="12.75">
       <c r="B303" s="19" t="s">
         <v>1121</v>
       </c>
       <c r="C303" s="17"/>
       <c r="D303" s="17"/>
     </row>
-    <row r="304" spans="2:13">
+    <row r="304" spans="1:13">
       <c r="B304" s="20" t="s">
         <v>61</v>
       </c>
@@ -52152,10 +52370,10 @@
         <v>28</v>
       </c>
       <c r="C305" s="23">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D305" s="23">
-        <v>43229.3985069444</v>
+        <v>43229.398506944402</v>
       </c>
       <c r="E305" s="22">
         <v>0</v>
@@ -52190,10 +52408,10 @@
         <v>29</v>
       </c>
       <c r="C306" s="23">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D306" s="23">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E306" s="22">
         <v>0</v>
@@ -52228,10 +52446,10 @@
         <v>30</v>
       </c>
       <c r="C307" s="23">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D307" s="23">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E307" s="22">
         <v>0</v>
@@ -52266,10 +52484,10 @@
         <v>31</v>
       </c>
       <c r="C308" s="23">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="D308" s="23">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="E308" s="22">
         <v>0</v>
@@ -52304,7 +52522,7 @@
         <v>32</v>
       </c>
       <c r="C309" s="23">
-        <v>43230.2953819444</v>
+        <v>43230.295381944401</v>
       </c>
       <c r="D309" s="23">
         <v>43230.2957523148</v>
@@ -52380,10 +52598,10 @@
         <v>34</v>
       </c>
       <c r="C311" s="23">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="D311" s="23">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="E311" s="22">
         <v>0</v>
@@ -52418,10 +52636,10 @@
         <v>35</v>
       </c>
       <c r="C312" s="23">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D312" s="23">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E312" s="22">
         <v>0</v>
@@ -52456,10 +52674,10 @@
         <v>36</v>
       </c>
       <c r="C313" s="23">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D313" s="23">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E313" s="22">
         <v>0</v>
@@ -52494,10 +52712,10 @@
         <v>37</v>
       </c>
       <c r="C314" s="23">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D314" s="23">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E314" s="22">
         <v>0</v>
@@ -52532,10 +52750,10 @@
         <v>38</v>
       </c>
       <c r="C315" s="23">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D315" s="23">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E315" s="22">
         <v>0</v>
@@ -52570,10 +52788,10 @@
         <v>39</v>
       </c>
       <c r="C316" s="23">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="D316" s="23">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E316" s="22">
         <v>0</v>
@@ -52684,10 +52902,10 @@
         <v>42</v>
       </c>
       <c r="C319" s="23">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D319" s="23">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E319" s="22">
         <v>0</v>
@@ -52722,10 +52940,10 @@
         <v>43</v>
       </c>
       <c r="C320" s="23">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D320" s="23">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E320" s="22">
         <v>0</v>
@@ -52755,661 +52973,660 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="327" ht="12.75" spans="3:4">
+    <row r="327" spans="3:4" ht="12.75">
       <c r="C327" s="17"/>
       <c r="D327" s="17"/>
     </row>
-    <row r="328" ht="12.75" spans="3:4">
+    <row r="328" spans="3:4" ht="12.75">
       <c r="C328" s="17"/>
       <c r="D328" s="17"/>
     </row>
-    <row r="329" ht="12.75" spans="3:4">
+    <row r="329" spans="3:4" ht="12.75">
       <c r="C329" s="17"/>
       <c r="D329" s="17"/>
     </row>
-    <row r="330" ht="12.75" spans="3:4">
+    <row r="330" spans="3:4" ht="12.75">
       <c r="C330" s="17"/>
       <c r="D330" s="17"/>
     </row>
-    <row r="331" ht="12.75" spans="3:4">
+    <row r="331" spans="3:4" ht="12.75">
       <c r="C331" s="17"/>
       <c r="D331" s="17"/>
     </row>
-    <row r="332" ht="12.75" spans="3:4">
+    <row r="332" spans="3:4" ht="12.75">
       <c r="C332" s="17"/>
       <c r="D332" s="17"/>
     </row>
-    <row r="333" ht="12.75" spans="3:4">
+    <row r="333" spans="3:4" ht="12.75">
       <c r="C333" s="17"/>
       <c r="D333" s="17"/>
     </row>
-    <row r="334" ht="12.75" spans="3:4">
+    <row r="334" spans="3:4" ht="12.75">
       <c r="C334" s="17"/>
       <c r="D334" s="17"/>
     </row>
-    <row r="335" ht="12.75" spans="3:4">
+    <row r="335" spans="3:4" ht="12.75">
       <c r="C335" s="17"/>
       <c r="D335" s="17"/>
     </row>
-    <row r="336" ht="12.75" spans="3:4">
+    <row r="336" spans="3:4" ht="12.75">
       <c r="C336" s="17"/>
       <c r="D336" s="17"/>
     </row>
-    <row r="337" ht="12.75" spans="3:4">
+    <row r="337" spans="3:4" ht="12.75">
       <c r="C337" s="17"/>
       <c r="D337" s="17"/>
     </row>
-    <row r="338" ht="12.75" spans="3:4">
+    <row r="338" spans="3:4" ht="12.75">
       <c r="C338" s="17"/>
       <c r="D338" s="17"/>
     </row>
-    <row r="339" ht="12.75" spans="3:4">
+    <row r="339" spans="3:4" ht="12.75">
       <c r="C339" s="17"/>
       <c r="D339" s="17"/>
     </row>
-    <row r="340" ht="12.75" spans="3:4">
+    <row r="340" spans="3:4" ht="12.75">
       <c r="C340" s="17"/>
       <c r="D340" s="17"/>
     </row>
-    <row r="341" ht="12.75" spans="3:4">
+    <row r="341" spans="3:4" ht="12.75">
       <c r="C341" s="17"/>
       <c r="D341" s="17"/>
     </row>
-    <row r="342" ht="12.75" spans="3:4">
+    <row r="342" spans="3:4" ht="12.75">
       <c r="C342" s="17"/>
       <c r="D342" s="17"/>
     </row>
-    <row r="343" ht="12.75" spans="3:4">
+    <row r="343" spans="3:4" ht="12.75">
       <c r="C343" s="17"/>
       <c r="D343" s="17"/>
     </row>
-    <row r="344" ht="12.75" spans="3:4">
+    <row r="344" spans="3:4" ht="12.75">
       <c r="C344" s="17"/>
       <c r="D344" s="17"/>
     </row>
-    <row r="345" ht="12.75" spans="3:4">
+    <row r="345" spans="3:4" ht="12.75">
       <c r="C345" s="17"/>
       <c r="D345" s="17"/>
     </row>
-    <row r="346" ht="12.75" spans="3:4">
+    <row r="346" spans="3:4" ht="12.75">
       <c r="C346" s="17"/>
       <c r="D346" s="17"/>
     </row>
-    <row r="347" ht="12.75" spans="3:4">
+    <row r="347" spans="3:4" ht="12.75">
       <c r="C347" s="17"/>
       <c r="D347" s="17"/>
     </row>
-    <row r="348" ht="12.75" spans="3:4">
+    <row r="348" spans="3:4" ht="12.75">
       <c r="C348" s="17"/>
       <c r="D348" s="17"/>
     </row>
-    <row r="349" ht="12.75" spans="3:4">
+    <row r="349" spans="3:4" ht="12.75">
       <c r="C349" s="17"/>
       <c r="D349" s="17"/>
     </row>
-    <row r="350" ht="12.75" spans="3:4">
+    <row r="350" spans="3:4" ht="12.75">
       <c r="C350" s="17"/>
       <c r="D350" s="17"/>
     </row>
-    <row r="351" ht="12.75" spans="3:4">
+    <row r="351" spans="3:4" ht="12.75">
       <c r="C351" s="17"/>
       <c r="D351" s="17"/>
     </row>
-    <row r="352" ht="12.75" spans="3:4">
+    <row r="352" spans="3:4" ht="12.75">
       <c r="C352" s="17"/>
       <c r="D352" s="17"/>
     </row>
-    <row r="353" ht="12.75" spans="3:4">
+    <row r="353" spans="3:4" ht="12.75">
       <c r="C353" s="17"/>
       <c r="D353" s="17"/>
     </row>
-    <row r="354" ht="12.75" spans="3:4">
+    <row r="354" spans="3:4" ht="12.75">
       <c r="C354" s="17"/>
       <c r="D354" s="17"/>
     </row>
-    <row r="355" ht="12.75" spans="3:4">
+    <row r="355" spans="3:4" ht="12.75">
       <c r="C355" s="17"/>
       <c r="D355" s="17"/>
     </row>
-    <row r="356" ht="12.75" spans="3:4">
+    <row r="356" spans="3:4" ht="12.75">
       <c r="C356" s="17"/>
       <c r="D356" s="17"/>
     </row>
-    <row r="357" ht="12.75" spans="3:4">
+    <row r="357" spans="3:4" ht="12.75">
       <c r="C357" s="17"/>
       <c r="D357" s="17"/>
     </row>
-    <row r="358" ht="12.75" spans="3:4">
+    <row r="358" spans="3:4" ht="12.75">
       <c r="C358" s="17"/>
       <c r="D358" s="17"/>
     </row>
-    <row r="359" ht="12.75" spans="3:4">
+    <row r="359" spans="3:4" ht="12.75">
       <c r="C359" s="17"/>
       <c r="D359" s="17"/>
     </row>
-    <row r="360" ht="12.75" spans="3:4">
+    <row r="360" spans="3:4" ht="12.75">
       <c r="C360" s="17"/>
       <c r="D360" s="17"/>
     </row>
-    <row r="361" ht="12.75" spans="3:4">
+    <row r="361" spans="3:4" ht="12.75">
       <c r="C361" s="17"/>
       <c r="D361" s="17"/>
     </row>
-    <row r="362" ht="12.75" spans="3:4">
+    <row r="362" spans="3:4" ht="12.75">
       <c r="C362" s="17"/>
       <c r="D362" s="17"/>
     </row>
-    <row r="363" ht="12.75" spans="3:4">
+    <row r="363" spans="3:4" ht="12.75">
       <c r="C363" s="17"/>
       <c r="D363" s="17"/>
     </row>
-    <row r="364" ht="12.75" spans="3:4">
+    <row r="364" spans="3:4" ht="12.75">
       <c r="C364" s="17"/>
       <c r="D364" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="0" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="469" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B198:E198">
-    <cfRule type="cellIs" dxfId="0" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="406" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F198">
-    <cfRule type="cellIs" dxfId="0" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="407" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G198">
-    <cfRule type="cellIs" dxfId="0" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="405" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H198:L198">
-    <cfRule type="cellIs" dxfId="0" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="401" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M198:EK198">
-    <cfRule type="cellIs" dxfId="0" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="254" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EL198">
-    <cfRule type="cellIs" dxfId="0" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="257" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM198">
-    <cfRule type="cellIs" dxfId="0" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="258" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN198">
-    <cfRule type="cellIs" dxfId="0" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="259" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO198">
-    <cfRule type="cellIs" dxfId="0" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="260" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EP198">
-    <cfRule type="cellIs" dxfId="0" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="261" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ198">
-    <cfRule type="cellIs" dxfId="0" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="262" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="ER198">
-    <cfRule type="cellIs" dxfId="0" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="263" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM226">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="91" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B227">
-    <cfRule type="cellIs" dxfId="0" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="411" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227:AG227">
-    <cfRule type="cellIs" dxfId="0" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="410" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U228">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="56" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA228">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="55" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U229">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="49" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B257">
-    <cfRule type="cellIs" dxfId="0" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="421" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C257:AA257">
-    <cfRule type="cellIs" dxfId="0" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="420" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB257">
-    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="48" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="46" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B285">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="44" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B286">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="42" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C286:J286">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="40" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F287">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I287">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="33" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J287">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="35" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A292">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="45" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="43" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B294">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="41" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294:K294">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="39" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A302">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B303">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="28" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B304">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C304:M304">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="26" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L305">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L306">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L307">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228:F246">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="89" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F247:F248">
-    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="88" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F295:F298">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="32" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F305:F320">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I228:I246">
-    <cfRule type="cellIs" dxfId="0" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="86" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I247:I248">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="85" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I295:I296">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="31" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I305:I320">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="24" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J305:J320">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K295:K298">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="36" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K305:K307">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="13" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K309:K313">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="12" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K315:K320">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L258:L278">
-    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="52" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M258:M265">
-    <cfRule type="cellIs" dxfId="0" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="417" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M266:M273">
-    <cfRule type="cellIs" dxfId="0" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="416" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M274:M278">
-    <cfRule type="cellIs" dxfId="0" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="415" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N258:N273">
-    <cfRule type="cellIs" dxfId="0" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="414" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N274:N278">
-    <cfRule type="cellIs" dxfId="0" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="413" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O228:O246">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O247:O248">
-    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="82" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P228:P246">
-    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="80" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P247:P248">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="79" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q228:Q246">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="77" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q247:Q248">
-    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="76" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R228:R246">
-    <cfRule type="cellIs" dxfId="0" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="74" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R247:R248">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="73" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S228:S248">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T228:T246">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="71" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T247:T248">
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="70" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U230:U246">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="59" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U247:U248">
-    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U258:U278">
-    <cfRule type="cellIs" dxfId="0" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="90" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA230:AA246">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="62" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA247:AA248">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="61" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB258:AB278">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD87 $A96:$XFD157 A158 C158:XFD158 $A159:$XFD195 C196:XFD196 EQ203:XFD206 EM220 ES220:XFD220 EM221:XFD225 EN226:XFD226 EM249:XFD281 A279:EL281 C255:EL256 AC257:EL257 A254:EL254 $A282:$XFD283 B284:XFD284 A285:A287 C285:XFD285 K286:XFD287 $A288:$XFD291 B292:XFD292 A293:A298 C293:XFD293 L294:XFD298 A304:A320 E301:XFD301 A301:B301 N304:XFD320 $A299:$XFD300 C302:XFD302 E303:XFD303 $A365:$XFD1048576 E327:XFD364 A327:B364 $A321:$XFD326">
-    <cfRule type="cellIs" dxfId="0" priority="472" operator="equal">
+  <conditionalFormatting sqref="A1:XFD87 A96:XFD157 A158 C158:XFD158 A159:XFD195 C196:XFD196 EQ203:XFD206 EM220 ES220:XFD220 EM221:XFD225 EN226:XFD226 EM249:XFD281 A279:EL281 C255:EL256 AC257:EL257 A254:EL254 A282:XFD283 B284:XFD284 A285:A287 C285:XFD285 K286:XFD287 A288:XFD291 B292:XFD292 A293:A298 C293:XFD293 L294:XFD298 A304:A320 E301:XFD301 A301:B301 N304:XFD320 A299:XFD300 C302:XFD302 E303:XFD303 A365:XFD1048576 E327:XFD364 A327:B364 A321:XFD326">
+    <cfRule type="cellIs" dxfId="40" priority="472" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:BV95">
-    <cfRule type="cellIs" dxfId="0" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="470" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF88:XFD95">
-    <cfRule type="cellIs" dxfId="0" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="471" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A196:B197">
-    <cfRule type="cellIs" dxfId="0" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="412" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B199:EK219">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="93" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN220:ER220 EL199:EP219">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="92" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A225:B226">
-    <cfRule type="cellIs" dxfId="0" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="408" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B228:B248 AG228:AG248 E228:E248 AA229 G228:H248 J228:N248">
-    <cfRule type="cellIs" dxfId="0" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="409" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228:D246">
-    <cfRule type="cellIs" dxfId="0" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="252" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V228:Z246">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="68" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB228:AF246">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="65" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247:D248">
-    <cfRule type="cellIs" dxfId="0" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="251" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V247:Z248">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="67" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB247:AF248">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="64" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:B256">
-    <cfRule type="cellIs" dxfId="0" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="418" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B258:F278 V258:AA278 O258:T278">
-    <cfRule type="cellIs" dxfId="0" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="419" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:E287 G287:H287">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="38" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B295:E298 G295:H296 J295:J296 G297:J298">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="37" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B302 A303">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L315:M320 K314:M314 L309:M313 K308:M308 M305:M307 G305:H320 B305:E320">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
@@ -53418,10 +53635,10 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C2" s="12"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>1153</v>
       </c>
@@ -53432,7 +53649,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A4" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53441,7 +53658,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53450,7 +53667,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A6" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53459,7 +53676,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A7" s="11" t="s">
         <v>1153</v>
       </c>
@@ -53470,7 +53687,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A8" s="11" t="s">
         <v>1153</v>
       </c>
@@ -53481,13 +53698,13 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="10" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A11" s="11" t="s">
         <v>1159</v>
       </c>
@@ -53496,7 +53713,7 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A12" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53505,12 +53722,12 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" ht="14.25" spans="1:1">
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -53518,27 +53735,26 @@
       <c r="E17" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
@@ -53547,10 +53763,10 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="12">
       <c r="C2" s="12"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>1153</v>
       </c>
@@ -53561,7 +53777,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A4" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53570,7 +53786,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53579,7 +53795,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A6" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53588,11 +53804,13 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" customFormat="1"/>
-    <row r="8" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="7" spans="1:5">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="12">
       <c r="C8" s="12"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>1159</v>
       </c>
@@ -53601,7 +53819,7 @@
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A10" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53610,12 +53828,12 @@
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" ht="14.25" spans="1:1">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -53623,27 +53841,26 @@
       <c r="E15" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K38" sqref="K37:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
@@ -53652,10 +53869,10 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="12">
       <c r="C2" s="12"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>1153</v>
       </c>
@@ -53666,7 +53883,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A4" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53675,7 +53892,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53684,10 +53901,10 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="12">
       <c r="C6" s="12"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A7" s="11" t="s">
         <v>1159</v>
       </c>
@@ -53696,7 +53913,7 @@
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A8" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53705,12 +53922,12 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" ht="14.25" spans="1:1">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:2">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="11" t="s">
         <v>1159</v>
       </c>
@@ -53718,7 +53935,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -53726,27 +53943,26 @@
       <c r="E13" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
@@ -53755,10 +53971,10 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="12">
       <c r="C2" s="12"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>1153</v>
       </c>
@@ -53769,7 +53985,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A4" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53778,7 +53994,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53787,10 +54003,10 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="12">
       <c r="C6" s="12"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A7" s="11" t="s">
         <v>1159</v>
       </c>
@@ -53799,7 +54015,7 @@
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A8" s="11" t="s">
         <v>1142</v>
       </c>
@@ -53808,12 +54024,12 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" ht="14.25" spans="1:1">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:2">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="11" t="s">
         <v>1159</v>
       </c>
@@ -53821,7 +54037,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -53829,21 +54045,20 @@
       <c r="E13" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
@@ -53878,7 +54093,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:8">
       <c r="B5" s="8" t="s">
         <v>1320</v>
       </c>
@@ -53895,7 +54110,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:8">
       <c r="B6" s="8" t="s">
         <v>1325</v>
       </c>
@@ -53909,12 +54124,12 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:8">
       <c r="B7" s="8" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:8">
       <c r="B8" s="8" t="s">
         <v>1330</v>
       </c>
@@ -53928,7 +54143,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:8">
       <c r="B9" s="8" t="s">
         <v>1333</v>
       </c>
@@ -53942,7 +54157,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:8">
       <c r="B10" s="8" t="s">
         <v>1336</v>
       </c>
@@ -53956,7 +54171,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:8">
       <c r="B11" s="8" t="s">
         <v>1339</v>
       </c>
@@ -53970,7 +54185,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:8">
       <c r="B12" s="8" t="s">
         <v>1342</v>
       </c>
@@ -53984,7 +54199,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:8">
       <c r="B13" s="8" t="s">
         <v>1345</v>
       </c>
@@ -53998,7 +54213,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:8">
       <c r="B14" s="8" t="s">
         <v>1348</v>
       </c>
@@ -54012,7 +54227,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:8">
       <c r="B15" s="8" t="s">
         <v>1351</v>
       </c>
@@ -54026,7 +54241,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:8">
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
@@ -54036,22 +54251,21 @@
       <c r="B18" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="9" customWidth="1"/>
@@ -54061,34 +54275,31 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>1141</v>
       </c>
-      <c r="C1" s="12"/>
     </row>
-    <row r="4" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="4" spans="1:4" ht="12" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>1142</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="C5" s="12"/>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:4">
+    <row r="7" spans="1:4" customFormat="1" ht="14.25">
       <c r="A7" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54098,7 +54309,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:4">
+    <row r="8" spans="1:4" customFormat="1" ht="14.25">
       <c r="A8" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54108,7 +54319,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4" customFormat="1" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54118,7 +54329,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4" customFormat="1" ht="14.25">
       <c r="A10" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54128,7 +54339,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:4">
+    <row r="11" spans="1:4" customFormat="1" ht="14.25">
       <c r="A11" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54138,7 +54349,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:4">
+    <row r="12" spans="1:4" customFormat="1" ht="14.25">
       <c r="A12" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54148,7 +54359,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:4">
+    <row r="13" spans="1:4" customFormat="1" ht="14.25">
       <c r="A13" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54158,7 +54369,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:4">
+    <row r="14" spans="1:4" customFormat="1" ht="14.25">
       <c r="A14" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54168,13 +54379,13 @@
       <c r="C14" s="12"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" customFormat="1" ht="13.5" spans="1:4">
+    <row r="15" spans="1:4" customFormat="1" ht="13.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:4">
+    <row r="16" spans="1:4" customFormat="1" ht="14.25">
       <c r="A16" s="11" t="s">
         <v>1153</v>
       </c>
@@ -54186,7 +54397,7 @@
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:3">
+    <row r="17" spans="1:4" customFormat="1" ht="14.25">
       <c r="A17" s="11" t="s">
         <v>1153</v>
       </c>
@@ -54197,7 +54408,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" customFormat="1" ht="14.25">
       <c r="A18" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54207,7 +54418,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:4">
+    <row r="19" spans="1:4" customFormat="1" ht="14.25">
       <c r="A19" s="11" t="s">
         <v>1159</v>
       </c>
@@ -54217,9 +54428,9 @@
       <c r="C19" s="12"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" customFormat="1" ht="13.5"/>
-    <row r="21" customFormat="1" ht="13.5"/>
-    <row r="22" customFormat="1" ht="14.25" spans="1:3">
+    <row r="20" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="21" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="22" spans="1:4" customFormat="1" ht="14.25">
       <c r="A22" s="11" t="s">
         <v>1140</v>
       </c>
@@ -54228,7 +54439,7 @@
       </c>
       <c r="C22" s="12"/>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:4">
+    <row r="25" spans="1:4" customFormat="1" ht="14.25">
       <c r="A25" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54238,7 +54449,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:4">
+    <row r="26" spans="1:4" customFormat="1" ht="14.25">
       <c r="A26" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54248,7 +54459,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" ht="14.25" spans="1:2">
+    <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54256,7 +54467,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:3">
+    <row r="28" spans="1:4" customFormat="1" ht="14.25">
       <c r="A28" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54265,16 +54476,15 @@
       </c>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="29" spans="1:4" ht="14.25">
       <c r="A29" s="11" t="s">
         <v>1142</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>1149</v>
       </c>
-      <c r="C29" s="12"/>
     </row>
-    <row r="30" ht="14.25" spans="1:2">
+    <row r="30" spans="1:4" ht="14.25">
       <c r="A30" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54282,7 +54492,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:4" ht="14.25">
       <c r="A31" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54290,7 +54500,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:4" ht="14.25">
       <c r="A32" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54298,7 +54508,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:3">
+    <row r="34" spans="1:4" ht="14.25">
       <c r="A34" s="11" t="s">
         <v>1153</v>
       </c>
@@ -54309,7 +54519,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:3">
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="11" t="s">
         <v>1153</v>
       </c>
@@ -54320,7 +54530,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:2">
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="11" t="s">
         <v>1142</v>
       </c>
@@ -54328,7 +54538,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:2">
+    <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="11" t="s">
         <v>1159</v>
       </c>
@@ -54336,30 +54546,29 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="38" ht="13.5" spans="1:4">
+    <row r="38" spans="1:4" ht="13.5">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38" s="41"/>
     </row>
-    <row r="40" ht="13.5" spans="1:3">
+    <row r="40" spans="1:4" ht="13.5">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:4">
       <c r="B41" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -54375,7 +54584,7 @@
     <col min="18" max="18" width="10.125"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" spans="1:7">
+    <row r="1" spans="1:239" s="9" customFormat="1" ht="12">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -54384,7 +54593,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" customFormat="1" spans="1:7">
+    <row r="2" spans="1:239">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -54393,7 +54602,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" s="24" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="3" spans="1:239" s="24" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>57</v>
       </c>
@@ -54401,7 +54610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" s="24" customFormat="1" spans="2:71">
+    <row r="4" spans="1:239" s="24" customFormat="1">
       <c r="B4" s="26" t="s">
         <v>104</v>
       </c>
@@ -54475,7 +54684,7 @@
       <c r="BR4" s="27"/>
       <c r="BS4" s="27"/>
     </row>
-    <row r="5" s="24" customFormat="1" spans="1:74">
+    <row r="5" spans="1:239" s="24" customFormat="1">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
         <v>62</v>
@@ -54697,7 +54906,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" s="24" customFormat="1" spans="1:239">
+    <row r="6" spans="1:239" s="24" customFormat="1">
       <c r="A6" s="32"/>
       <c r="B6" s="33" t="s">
         <v>80</v>
@@ -55084,7 +55293,7 @@
       <c r="ID6" s="28"/>
       <c r="IE6" s="28"/>
     </row>
-    <row r="7" customFormat="1" spans="1:239">
+    <row r="7" spans="1:239">
       <c r="A7" s="28"/>
       <c r="B7" s="33" t="s">
         <v>92</v>
@@ -55471,7 +55680,7 @@
       <c r="ID7" s="28"/>
       <c r="IE7" s="28"/>
     </row>
-    <row r="8" customFormat="1" spans="1:239">
+    <row r="8" spans="1:239">
       <c r="A8" s="34"/>
       <c r="B8" s="33" t="s">
         <v>92</v>
@@ -55858,7 +56067,7 @@
       <c r="ID8" s="28"/>
       <c r="IE8" s="28"/>
     </row>
-    <row r="9" customFormat="1" spans="1:239">
+    <row r="9" spans="1:239">
       <c r="A9" s="34"/>
       <c r="B9" s="33" t="s">
         <v>80</v>
@@ -56245,7 +56454,7 @@
       <c r="ID9" s="28"/>
       <c r="IE9" s="28"/>
     </row>
-    <row r="10" customFormat="1" spans="1:239">
+    <row r="10" spans="1:239">
       <c r="A10" s="34"/>
       <c r="B10" s="33" t="s">
         <v>80</v>
@@ -56632,7 +56841,7 @@
       <c r="ID10" s="28"/>
       <c r="IE10" s="28"/>
     </row>
-    <row r="11" customFormat="1" spans="1:239">
+    <row r="11" spans="1:239">
       <c r="A11" s="34"/>
       <c r="B11" s="33" t="s">
         <v>92</v>
@@ -57019,7 +57228,7 @@
       <c r="ID11" s="28"/>
       <c r="IE11" s="28"/>
     </row>
-    <row r="12" customFormat="1" spans="1:239">
+    <row r="12" spans="1:239">
       <c r="A12" s="34"/>
       <c r="B12" s="33" t="s">
         <v>92</v>
@@ -57406,7 +57615,7 @@
       <c r="ID12" s="28"/>
       <c r="IE12" s="28"/>
     </row>
-    <row r="13" customFormat="1" spans="1:239">
+    <row r="13" spans="1:239">
       <c r="A13" s="34"/>
       <c r="B13" s="33" t="s">
         <v>80</v>
@@ -57793,7 +58002,7 @@
       <c r="ID13" s="28"/>
       <c r="IE13" s="28"/>
     </row>
-    <row r="14" customFormat="1" spans="1:7">
+    <row r="14" spans="1:239">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -57802,7 +58011,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" customFormat="1" spans="1:7">
+    <row r="15" spans="1:239">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -57811,7 +58020,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" customFormat="1" spans="1:7">
+    <row r="16" spans="1:239">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -57820,7 +58029,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" s="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="17" spans="1:35" s="16" customFormat="1" ht="14.25">
       <c r="A17" s="35" t="s">
         <v>57</v>
       </c>
@@ -57828,7 +58037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" s="16" customFormat="1" ht="12" spans="2:19">
+    <row r="18" spans="1:35" s="16" customFormat="1" ht="12">
       <c r="B18" s="36" t="s">
         <v>1165</v>
       </c>
@@ -57850,7 +58059,7 @@
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
     </row>
-    <row r="19" s="16" customFormat="1" ht="12" spans="2:19">
+    <row r="19" spans="1:35" s="16" customFormat="1" ht="12">
       <c r="B19" s="20" t="s">
         <v>61</v>
       </c>
@@ -57906,7 +58115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" s="16" customFormat="1" ht="12" spans="2:19">
+    <row r="20" spans="1:35" s="16" customFormat="1" ht="12">
       <c r="B20" s="22" t="s">
         <v>79</v>
       </c>
@@ -57962,7 +58171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" s="16" customFormat="1" ht="12" spans="2:19">
+    <row r="21" spans="1:35" s="16" customFormat="1" ht="12">
       <c r="B21" s="22" t="s">
         <v>85</v>
       </c>
@@ -58018,7 +58227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" s="16" customFormat="1" ht="12" spans="2:19">
+    <row r="22" spans="1:35" s="16" customFormat="1" ht="12">
       <c r="B22" s="22" t="s">
         <v>88</v>
       </c>
@@ -58074,7 +58283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" s="16" customFormat="1" ht="12" spans="2:19">
+    <row r="23" spans="1:35" s="16" customFormat="1" ht="12">
       <c r="B23" s="22" t="s">
         <v>91</v>
       </c>
@@ -58130,7 +58339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" s="16" customFormat="1" ht="12" spans="2:19">
+    <row r="24" spans="1:35" s="16" customFormat="1" ht="12">
       <c r="B24" s="22" t="s">
         <v>95</v>
       </c>
@@ -58186,7 +58395,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" s="16" customFormat="1" ht="12" spans="2:19">
+    <row r="25" spans="1:35" s="16" customFormat="1" ht="12">
       <c r="B25" s="22" t="s">
         <v>98</v>
       </c>
@@ -58242,7 +58451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" s="16" customFormat="1" ht="12" spans="2:19">
+    <row r="26" spans="1:35" s="16" customFormat="1" ht="12">
       <c r="B26" s="22" t="s">
         <v>100</v>
       </c>
@@ -58298,8 +58507,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" s="16" customFormat="1" ht="12"/>
-    <row r="29" s="9" customFormat="1" spans="2:35">
+    <row r="27" spans="1:35" s="16" customFormat="1" ht="12"/>
+    <row r="29" spans="1:35" s="9" customFormat="1">
       <c r="B29" s="19"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -58335,7 +58544,7 @@
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="14.25" spans="1:35">
+    <row r="30" spans="1:35" s="9" customFormat="1" ht="14.25">
       <c r="A30" s="35" t="s">
         <v>57</v>
       </c>
@@ -58376,7 +58585,7 @@
       <c r="AH30" s="28"/>
       <c r="AI30" s="28"/>
     </row>
-    <row r="31" s="9" customFormat="1" spans="2:35">
+    <row r="31" spans="1:35" s="9" customFormat="1">
       <c r="B31" s="36" t="s">
         <v>247</v>
       </c>
@@ -58414,7 +58623,7 @@
       <c r="AH31" s="28"/>
       <c r="AI31" s="28"/>
     </row>
-    <row r="32" s="9" customFormat="1" spans="2:35">
+    <row r="32" spans="1:35" s="9" customFormat="1">
       <c r="B32" s="21" t="s">
         <v>62</v>
       </c>
@@ -58464,7 +58673,7 @@
       <c r="AH32" s="28"/>
       <c r="AI32" s="28"/>
     </row>
-    <row r="33" s="9" customFormat="1" spans="2:35">
+    <row r="33" spans="1:36" s="9" customFormat="1">
       <c r="B33" s="22" t="s">
         <v>80</v>
       </c>
@@ -58514,7 +58723,7 @@
       <c r="AH33" s="28"/>
       <c r="AI33" s="28"/>
     </row>
-    <row r="34" s="9" customFormat="1" spans="2:35">
+    <row r="34" spans="1:36" s="9" customFormat="1">
       <c r="B34" s="34"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
@@ -58550,7 +58759,7 @@
       <c r="AH34" s="28"/>
       <c r="AI34" s="28"/>
     </row>
-    <row r="35" s="9" customFormat="1" spans="2:35">
+    <row r="35" spans="1:36" s="9" customFormat="1">
       <c r="B35" s="19"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -58586,13 +58795,11 @@
       <c r="AH35" s="28"/>
       <c r="AI35" s="28"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:36">
       <c r="A36" s="9"/>
       <c r="B36" s="36"/>
     </row>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="39" spans="1:36" s="9" customFormat="1" ht="14.25">
       <c r="A39" s="18" t="s">
         <v>57</v>
       </c>
@@ -58600,13 +58807,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" s="9" customFormat="1" ht="12" spans="1:2">
+    <row r="40" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="A40" s="39"/>
       <c r="B40" s="19" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" s="9" customFormat="1" ht="12" spans="2:36">
+    <row r="41" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B41" s="20" t="s">
         <v>61</v>
       </c>
@@ -58711,7 +58918,7 @@
       </c>
       <c r="AJ41" s="21"/>
     </row>
-    <row r="42" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="42" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B42" s="22" t="s">
         <v>79</v>
       </c>
@@ -58815,7 +59022,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="43" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B43" s="22" t="s">
         <v>85</v>
       </c>
@@ -58919,7 +59126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="44" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B44" s="22" t="s">
         <v>88</v>
       </c>
@@ -59023,7 +59230,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="45" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B45" s="22" t="s">
         <v>91</v>
       </c>
@@ -59127,7 +59334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="46" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B46" s="22" t="s">
         <v>95</v>
       </c>
@@ -59231,7 +59438,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="47" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B47" s="22" t="s">
         <v>98</v>
       </c>
@@ -59335,7 +59542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="48" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B48" s="22" t="s">
         <v>100</v>
       </c>
@@ -59439,7 +59646,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="49" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B49" s="22" t="s">
         <v>1018</v>
       </c>
@@ -59543,7 +59750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="50" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B50" s="22" t="s">
         <v>1022</v>
       </c>
@@ -59647,7 +59854,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="51" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B51" s="22" t="s">
         <v>1026</v>
       </c>
@@ -59751,7 +59958,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="52" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B52" s="22" t="s">
         <v>795</v>
       </c>
@@ -59855,7 +60062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="53" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B53" s="22" t="s">
         <v>611</v>
       </c>
@@ -59959,7 +60166,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="54" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B54" s="22" t="s">
         <v>187</v>
       </c>
@@ -60063,7 +60270,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="55" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B55" s="22" t="s">
         <v>1043</v>
       </c>
@@ -60167,7 +60374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="56" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B56" s="22" t="s">
         <v>1047</v>
       </c>
@@ -60271,7 +60478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="57" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B57" s="22" t="s">
         <v>1204</v>
       </c>
@@ -60375,7 +60582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" s="9" customFormat="1" spans="2:35">
+    <row r="61" spans="1:35" s="9" customFormat="1">
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
@@ -60411,7 +60618,7 @@
       <c r="AH61" s="28"/>
       <c r="AI61" s="28"/>
     </row>
-    <row r="62" s="9" customFormat="1" spans="2:35">
+    <row r="62" spans="1:35" s="9" customFormat="1">
       <c r="B62" s="34"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
@@ -60447,7 +60654,7 @@
       <c r="AH62" s="28"/>
       <c r="AI62" s="28"/>
     </row>
-    <row r="63" s="9" customFormat="1" ht="14.25" spans="1:35">
+    <row r="63" spans="1:35" s="9" customFormat="1" ht="14.25">
       <c r="A63" s="18" t="s">
         <v>57</v>
       </c>
@@ -60488,7 +60695,7 @@
       <c r="AH63" s="28"/>
       <c r="AI63" s="28"/>
     </row>
-    <row r="64" s="9" customFormat="1" spans="1:35">
+    <row r="64" spans="1:35" s="9" customFormat="1">
       <c r="A64" s="39"/>
       <c r="B64" s="19" t="s">
         <v>281</v>
@@ -60527,7 +60734,7 @@
       <c r="AH64" s="28"/>
       <c r="AI64" s="28"/>
     </row>
-    <row r="65" s="9" customFormat="1" spans="1:239">
+    <row r="65" spans="1:239" s="9" customFormat="1">
       <c r="A65" s="28"/>
       <c r="B65" s="20" t="s">
         <v>105</v>
@@ -61244,7 +61451,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" s="9" customFormat="1" spans="1:239">
+    <row r="66" spans="1:239" s="9" customFormat="1">
       <c r="A66" s="28"/>
       <c r="B66" s="22" t="s">
         <v>1213</v>
@@ -61961,7 +62168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" s="9" customFormat="1" spans="1:239">
+    <row r="67" spans="1:239" s="9" customFormat="1">
       <c r="A67" s="28"/>
       <c r="B67" s="22" t="s">
         <v>1214</v>
@@ -62678,7 +62885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" s="9" customFormat="1" spans="1:239">
+    <row r="68" spans="1:239" s="9" customFormat="1">
       <c r="A68" s="28"/>
       <c r="B68" s="22" t="s">
         <v>1216</v>
@@ -63395,7 +63602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" s="9" customFormat="1" spans="1:239">
+    <row r="69" spans="1:239" s="9" customFormat="1">
       <c r="A69" s="28"/>
       <c r="B69" s="22" t="s">
         <v>1218</v>
@@ -64112,7 +64319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" s="9" customFormat="1" ht="36" spans="1:239">
+    <row r="70" spans="1:239" s="9" customFormat="1" ht="36">
       <c r="A70" s="28"/>
       <c r="B70" s="22" t="s">
         <v>1219</v>
@@ -64829,7 +65036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" s="9" customFormat="1" spans="1:239">
+    <row r="71" spans="1:239" s="9" customFormat="1">
       <c r="A71" s="28"/>
       <c r="B71" s="22" t="s">
         <v>1221</v>
@@ -65546,7 +65753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" s="9" customFormat="1" spans="1:239">
+    <row r="72" spans="1:239" s="9" customFormat="1">
       <c r="A72" s="28"/>
       <c r="B72" s="22" t="s">
         <v>1222</v>
@@ -66263,7 +66470,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" s="9" customFormat="1" spans="1:239">
+    <row r="73" spans="1:239" s="9" customFormat="1">
       <c r="A73" s="28"/>
       <c r="B73" s="22" t="s">
         <v>1223</v>
@@ -66980,7 +67187,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" s="9" customFormat="1" spans="1:239">
+    <row r="74" spans="1:239" s="9" customFormat="1">
       <c r="A74" s="28"/>
       <c r="B74" s="22" t="s">
         <v>1225</v>
@@ -67697,7 +67904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" s="9" customFormat="1" spans="1:239">
+    <row r="75" spans="1:239" s="9" customFormat="1">
       <c r="A75" s="28"/>
       <c r="B75" s="22" t="s">
         <v>1227</v>
@@ -68414,7 +68621,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" s="9" customFormat="1" spans="1:239">
+    <row r="76" spans="1:239" s="9" customFormat="1">
       <c r="A76" s="28"/>
       <c r="B76" s="22" t="s">
         <v>1228</v>
@@ -69131,7 +69338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" s="9" customFormat="1" spans="1:239">
+    <row r="77" spans="1:239" s="9" customFormat="1">
       <c r="A77" s="28"/>
       <c r="B77" s="22" t="s">
         <v>1096</v>
@@ -69848,7 +70055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" s="9" customFormat="1" spans="1:239">
+    <row r="78" spans="1:239" s="9" customFormat="1">
       <c r="A78" s="28"/>
       <c r="B78" s="22" t="s">
         <v>1097</v>
@@ -70565,7 +70772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" s="9" customFormat="1" spans="1:239">
+    <row r="79" spans="1:239" s="9" customFormat="1">
       <c r="A79" s="28"/>
       <c r="B79" s="22" t="s">
         <v>1098</v>
@@ -71282,7 +71489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" s="9" customFormat="1" spans="1:239">
+    <row r="80" spans="1:239" s="9" customFormat="1">
       <c r="A80" s="28"/>
       <c r="B80" s="22" t="s">
         <v>1099</v>
@@ -71999,7 +72206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" s="9" customFormat="1" spans="1:239">
+    <row r="81" spans="1:239" s="9" customFormat="1">
       <c r="A81" s="28"/>
       <c r="B81" s="22" t="s">
         <v>1101</v>
@@ -72716,7 +72923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" s="9" customFormat="1" spans="1:239">
+    <row r="82" spans="1:239" s="9" customFormat="1">
       <c r="A82" s="28"/>
       <c r="B82" s="22" t="s">
         <v>1102</v>
@@ -73433,7 +73640,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="83" s="9" customFormat="1" spans="1:239">
+    <row r="83" spans="1:239" s="9" customFormat="1">
       <c r="A83" s="28"/>
       <c r="B83" s="22" t="s">
         <v>1103</v>
@@ -74150,7 +74357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" s="9" customFormat="1" spans="1:239">
+    <row r="84" spans="1:239" s="9" customFormat="1">
       <c r="A84" s="28"/>
       <c r="B84" s="22" t="s">
         <v>1232</v>
@@ -74867,7 +75074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" s="9" customFormat="1" spans="1:239">
+    <row r="85" spans="1:239" s="9" customFormat="1">
       <c r="A85" s="28"/>
       <c r="B85" s="22" t="s">
         <v>1233</v>
@@ -75584,7 +75791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" s="9" customFormat="1" spans="1:239">
+    <row r="86" spans="1:239" s="9" customFormat="1">
       <c r="A86" s="28"/>
       <c r="B86" s="22" t="s">
         <v>1234</v>
@@ -76301,7 +76508,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" s="9" customFormat="1" spans="1:239">
+    <row r="87" spans="1:239" s="9" customFormat="1">
       <c r="A87" s="28"/>
       <c r="B87" s="22" t="s">
         <v>1235</v>
@@ -77018,7 +77225,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" s="9" customFormat="1" spans="1:239">
+    <row r="88" spans="1:239" s="9" customFormat="1">
       <c r="A88" s="28"/>
       <c r="B88" s="22" t="s">
         <v>1236</v>
@@ -77735,7 +77942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" s="9" customFormat="1" spans="1:239">
+    <row r="89" spans="1:239" s="9" customFormat="1">
       <c r="A89" s="28"/>
       <c r="B89" s="22" t="s">
         <v>1237</v>
@@ -78452,7 +78659,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="90" s="9" customFormat="1" spans="1:239">
+    <row r="90" spans="1:239" s="9" customFormat="1">
       <c r="A90" s="28"/>
       <c r="B90" s="22" t="s">
         <v>1239</v>
@@ -79169,7 +79376,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="91" s="9" customFormat="1" spans="1:239">
+    <row r="91" spans="1:239" s="9" customFormat="1">
       <c r="A91" s="28"/>
       <c r="B91" s="22" t="s">
         <v>1240</v>
@@ -79886,7 +80093,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="92" s="9" customFormat="1" spans="1:239">
+    <row r="92" spans="1:239" s="9" customFormat="1">
       <c r="A92" s="28"/>
       <c r="B92" s="22" t="s">
         <v>1241</v>
@@ -80603,7 +80810,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" s="9" customFormat="1" spans="1:239">
+    <row r="93" spans="1:239" s="9" customFormat="1">
       <c r="A93" s="28"/>
       <c r="B93" s="22" t="s">
         <v>1242</v>
@@ -81320,7 +81527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" s="9" customFormat="1" spans="1:239">
+    <row r="94" spans="1:239" s="9" customFormat="1">
       <c r="A94" s="28"/>
       <c r="B94" s="22" t="s">
         <v>1243</v>
@@ -82037,7 +82244,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="95" s="9" customFormat="1" spans="1:239">
+    <row r="95" spans="1:239" s="9" customFormat="1">
       <c r="A95" s="28"/>
       <c r="B95" s="22" t="s">
         <v>1245</v>
@@ -82754,7 +82961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" s="9" customFormat="1" spans="1:239">
+    <row r="96" spans="1:239" s="9" customFormat="1">
       <c r="A96" s="28"/>
       <c r="B96" s="22" t="s">
         <v>1230</v>
@@ -83471,7 +83678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" s="9" customFormat="1" spans="2:103">
+    <row r="97" spans="2:103" s="9" customFormat="1">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -83508,7 +83715,7 @@
       <c r="AI97" s="28"/>
       <c r="CY97"/>
     </row>
-    <row r="98" s="9" customFormat="1" spans="2:35">
+    <row r="98" spans="2:103" s="9" customFormat="1">
       <c r="B98" s="34"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -83544,7 +83751,7 @@
       <c r="AH98" s="28"/>
       <c r="AI98" s="28"/>
     </row>
-    <row r="99" s="9" customFormat="1" spans="2:103">
+    <row r="99" spans="2:103" s="9" customFormat="1">
       <c r="B99" s="19"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -83581,7 +83788,7 @@
       <c r="AI99" s="28"/>
       <c r="CY99"/>
     </row>
-    <row r="101" s="9" customFormat="1" spans="2:35">
+    <row r="101" spans="2:103" s="9" customFormat="1">
       <c r="B101" s="19"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -83617,41 +83824,40 @@
       <c r="AH101" s="28"/>
       <c r="AI101" s="28"/>
     </row>
-    <row r="102" s="9" customFormat="1" ht="12"/>
+    <row r="102" spans="2:103" s="9" customFormat="1" ht="12"/>
   </sheetData>
-  <conditionalFormatting sqref="$A57:$XFD57">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="A57:XFD57">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A5:$XFD5 IF6:XFD13">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+  <conditionalFormatting sqref="A5:XFD5 IF6:XFD13">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:BV13">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65 C65:XFD65 $A66:$XFD96">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+  <conditionalFormatting sqref="A65 C65:XFD65 A66:XFD96">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A101:$XFD102">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+  <conditionalFormatting sqref="A101:XFD102">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -83664,7 +83870,7 @@
     <col min="3" max="3" width="18.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
@@ -83673,10 +83879,10 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C2" s="12"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83687,7 +83893,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A4" s="11" t="s">
         <v>1142</v>
       </c>
@@ -83696,7 +83902,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
@@ -83705,7 +83911,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A6" s="11" t="s">
         <v>1142</v>
       </c>
@@ -83714,22 +83920,22 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C7" s="12"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C8" s="12"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="10" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="11" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C11" s="12"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A12" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83740,7 +83946,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A13" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83751,7 +83957,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A14" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83762,10 +83968,10 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="15" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C15" s="12"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="16" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A16" s="11" t="s">
         <v>1142</v>
       </c>
@@ -83774,10 +83980,10 @@
       </c>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="17" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C17" s="12"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="18" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A18" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83788,7 +83994,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A19" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83799,7 +84005,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="20" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A20" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83810,7 +84016,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="21" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A21" s="11" t="s">
         <v>1159</v>
       </c>
@@ -83819,7 +84025,7 @@
       </c>
       <c r="C21" s="12"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="22" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A22" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83830,7 +84036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="23" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A23" s="11" t="s">
         <v>1159</v>
       </c>
@@ -83839,7 +84045,7 @@
       </c>
       <c r="C23" s="12"/>
     </row>
-    <row r="24" ht="14.25" spans="1:3">
+    <row r="24" spans="1:3" ht="14.25">
       <c r="A24" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83850,7 +84056,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:2">
+    <row r="26" spans="1:3" ht="14.25">
       <c r="A26" s="11" t="s">
         <v>1142</v>
       </c>
@@ -83858,7 +84064,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:2">
+    <row r="27" spans="1:3" ht="14.25">
       <c r="A27" s="11" t="s">
         <v>1159</v>
       </c>
@@ -83866,7 +84072,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:2">
+    <row r="28" spans="1:3" ht="14.25">
       <c r="A28" s="11" t="s">
         <v>1142</v>
       </c>
@@ -83874,7 +84080,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:2">
+    <row r="29" spans="1:3" ht="14.25">
       <c r="A29" s="11" t="s">
         <v>1142</v>
       </c>
@@ -83882,12 +84088,12 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:1">
+    <row r="30" spans="1:3" ht="14.25">
       <c r="A30" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:3" ht="14.25">
       <c r="A31" s="11" t="s">
         <v>1142</v>
       </c>
@@ -83895,30 +84101,23 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:1">
+    <row r="32" spans="1:3" ht="14.25">
       <c r="A32" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="3:3">
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:3">
+    <row r="34" spans="1:9" ht="14.25">
       <c r="A34" s="11" t="s">
         <v>1159</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>1271</v>
       </c>
-      <c r="C34" s="10"/>
     </row>
-    <row r="35" customFormat="1" spans="3:3">
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="36" spans="1:9" s="9" customFormat="1" ht="12">
       <c r="C36" s="12"/>
     </row>
-    <row r="37" ht="14.25" spans="1:3">
+    <row r="37" spans="1:9" ht="14.25">
       <c r="A37" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83929,7 +84128,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:3">
+    <row r="38" spans="1:9" ht="14.25">
       <c r="A38" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83940,7 +84139,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:3">
+    <row r="39" spans="1:9" ht="14.25">
       <c r="A39" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83951,17 +84150,17 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:9">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="12"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:9">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="12"/>
     </row>
-    <row r="42" ht="14.25" spans="1:3">
+    <row r="42" spans="1:9" ht="14.25">
       <c r="A42" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83972,7 +84171,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:3">
+    <row r="43" spans="1:9" ht="14.25">
       <c r="A43" s="11" t="s">
         <v>1153</v>
       </c>
@@ -83983,7 +84182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:9">
+    <row r="44" spans="1:9" ht="14.25">
       <c r="A44" s="11" t="s">
         <v>1159</v>
       </c>
@@ -83992,7 +84191,7 @@
       </c>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" ht="14.25" spans="1:3">
+    <row r="45" spans="1:9" ht="14.25">
       <c r="A45" s="11" t="s">
         <v>1153</v>
       </c>
@@ -84003,7 +84202,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:9" ht="14.25">
       <c r="A47" s="11" t="s">
         <v>1142</v>
       </c>
@@ -84011,7 +84210,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:2">
+    <row r="48" spans="1:9" ht="14.25">
       <c r="A48" s="11" t="s">
         <v>1142</v>
       </c>
@@ -84019,7 +84218,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:2">
+    <row r="49" spans="1:2" ht="14.25">
       <c r="A49" s="11" t="s">
         <v>1142</v>
       </c>
@@ -84027,12 +84226,12 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:1">
+    <row r="50" spans="1:2" ht="14.25">
       <c r="A50" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:2">
+    <row r="52" spans="1:2" ht="14.25">
       <c r="A52" s="11" t="s">
         <v>1159</v>
       </c>
@@ -84041,14 +84240,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -84064,7 +84262,7 @@
     <col min="18" max="18" width="10.125"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" spans="1:7">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -84073,11 +84271,11 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="12.75" spans="3:4">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="12.75">
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="14.25">
       <c r="A4" s="18" t="s">
         <v>57</v>
       </c>
@@ -84085,14 +84283,14 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="12.75" spans="2:4">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="12.75">
       <c r="B5" s="19" t="s">
         <v>1121</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B6" s="20" t="s">
         <v>61</v>
       </c>
@@ -84130,15 +84328,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B7" s="22">
         <v>28</v>
       </c>
       <c r="C7" s="23">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D7" s="23">
-        <v>43229.3985069444</v>
+        <v>43229.398506944402</v>
       </c>
       <c r="E7" s="22">
         <v>0</v>
@@ -84168,15 +84366,15 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B8" s="22">
         <v>29</v>
       </c>
       <c r="C8" s="23">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D8" s="23">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E8" s="22">
         <v>0</v>
@@ -84206,15 +84404,15 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B9" s="22">
         <v>30</v>
       </c>
       <c r="C9" s="23">
-        <v>43229.3970601852</v>
+        <v>43229.397060185198</v>
       </c>
       <c r="D9" s="23">
-        <v>43234.1663425926</v>
+        <v>43234.166342592602</v>
       </c>
       <c r="E9" s="22">
         <v>0</v>
@@ -84244,15 +84442,15 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B10" s="22">
         <v>31</v>
       </c>
       <c r="C10" s="23">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="D10" s="23">
-        <v>43229.4134953704</v>
+        <v>43229.413495370398</v>
       </c>
       <c r="E10" s="22">
         <v>0</v>
@@ -84282,12 +84480,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B11" s="22">
         <v>32</v>
       </c>
       <c r="C11" s="23">
-        <v>43230.2953819444</v>
+        <v>43230.295381944401</v>
       </c>
       <c r="D11" s="23">
         <v>43230.2957523148</v>
@@ -84320,7 +84518,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B12" s="22">
         <v>33</v>
       </c>
@@ -84358,15 +84556,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B13" s="22">
         <v>34</v>
       </c>
       <c r="C13" s="23">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="D13" s="23">
-        <v>43235.0934722222</v>
+        <v>43235.093472222201</v>
       </c>
       <c r="E13" s="22">
         <v>0</v>
@@ -84396,15 +84594,15 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B14" s="22">
         <v>35</v>
       </c>
       <c r="C14" s="23">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D14" s="23">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E14" s="22">
         <v>0</v>
@@ -84434,15 +84632,15 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B15" s="22">
         <v>36</v>
       </c>
       <c r="C15" s="23">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="D15" s="23">
-        <v>43241.340474537</v>
+        <v>43241.340474536999</v>
       </c>
       <c r="E15" s="22">
         <v>0</v>
@@ -84472,15 +84670,15 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="B16" s="22">
         <v>37</v>
       </c>
       <c r="C16" s="23">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D16" s="23">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E16" s="22">
         <v>0</v>
@@ -84510,15 +84708,15 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="17" spans="2:13" s="9" customFormat="1" ht="12">
       <c r="B17" s="22">
         <v>38</v>
       </c>
       <c r="C17" s="23">
-        <v>43241.3497337963</v>
+        <v>43241.349733796298</v>
       </c>
       <c r="D17" s="23">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E17" s="22">
         <v>0</v>
@@ -84548,15 +84746,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="18" spans="2:13" s="9" customFormat="1" ht="12">
       <c r="B18" s="22">
         <v>39</v>
       </c>
       <c r="C18" s="23">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="D18" s="23">
-        <v>43241.3531018519</v>
+        <v>43241.353101851899</v>
       </c>
       <c r="E18" s="22">
         <v>0</v>
@@ -84586,7 +84784,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="19" spans="2:13" s="9" customFormat="1" ht="12">
       <c r="B19" s="22">
         <v>40</v>
       </c>
@@ -84624,7 +84822,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="20" spans="2:13" s="9" customFormat="1" ht="12">
       <c r="B20" s="22">
         <v>41</v>
       </c>
@@ -84662,15 +84860,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="21" spans="2:13" s="9" customFormat="1" ht="12">
       <c r="B21" s="22">
         <v>42</v>
       </c>
       <c r="C21" s="23">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D21" s="23">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E21" s="22">
         <v>0</v>
@@ -84700,15 +84898,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" s="9" customFormat="1" ht="12" spans="2:13">
+    <row r="22" spans="2:13" s="9" customFormat="1" ht="12">
       <c r="B22" s="22">
         <v>43</v>
       </c>
       <c r="C22" s="23">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="D22" s="23">
-        <v>43241.3817708333</v>
+        <v>43241.381770833301</v>
       </c>
       <c r="E22" s="22">
         <v>0</v>
@@ -84738,81 +84936,82 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="1" ht="12"/>
-    <row r="24" s="9" customFormat="1" ht="12"/>
+    <row r="23" spans="2:13" s="9" customFormat="1" ht="12"/>
+    <row r="24" spans="2:13" s="9" customFormat="1" ht="12"/>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:M6">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F22">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I22">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:J22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K9">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K15">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K22">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A22 E3:XFD3 A3:B3 N6:XFD22 C4:XFD4 E5:XFD5 $A23:$XFD24">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+  <conditionalFormatting sqref="A6:A22 E3:XFD3 A3:B3 N6:XFD22 C4:XFD4 E5:XFD5 A23:XFD24">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4 A5">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -84821,27 +85020,25 @@
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
@@ -84850,10 +85047,10 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C2" s="12"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>1153</v>
       </c>
@@ -84864,7 +85061,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A4" s="11" t="s">
         <v>1142</v>
       </c>
@@ -84873,7 +85070,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
@@ -84882,7 +85079,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A6" s="11" t="s">
         <v>1142</v>
       </c>
@@ -84891,10 +85088,10 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C7" s="12"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A8" s="11" t="s">
         <v>1153</v>
       </c>
@@ -84905,7 +85102,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>1153</v>
       </c>
@@ -84916,7 +85113,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="10" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A10" s="11" t="s">
         <v>1153</v>
       </c>
@@ -84927,7 +85124,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="11" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A11" s="11" t="s">
         <v>1142</v>
       </c>
@@ -84936,7 +85133,7 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A12" s="11" t="s">
         <v>1142</v>
       </c>
@@ -84945,13 +85142,13 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A13" s="11" t="s">
         <v>1269</v>
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="14" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A14" s="11" t="s">
         <v>1159</v>
       </c>
@@ -84960,28 +85157,28 @@
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="15" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C15" s="12"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="16" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C16" s="12"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="12">
       <c r="C17" s="12"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="12">
       <c r="C18" s="12"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="12" spans="3:6">
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="12">
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" s="9" customFormat="1" spans="2:3">
+    <row r="21" spans="1:6" s="9" customFormat="1">
       <c r="B21"/>
       <c r="C21" s="12"/>
     </row>
-    <row r="24" customFormat="1" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="12"/>
@@ -84989,27 +85186,26 @@
       <c r="E24" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
@@ -85018,10 +85214,10 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="12">
       <c r="C2" s="12"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>1153</v>
       </c>
@@ -85032,7 +85228,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A4" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85041,7 +85237,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85050,7 +85246,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A6" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85059,14 +85255,14 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="12">
       <c r="C7" s="12"/>
     </row>
-    <row r="8" s="9" customFormat="1" spans="2:3">
+    <row r="8" spans="1:5" s="9" customFormat="1">
       <c r="B8"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:5">
+    <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85077,7 +85273,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="11" t="s">
         <v>1284</v>
       </c>
@@ -85088,7 +85284,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="11" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A11" s="11" t="s">
         <v>1159</v>
       </c>
@@ -85097,7 +85293,7 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:5">
+    <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="11" t="s">
         <v>1284</v>
       </c>
@@ -85108,7 +85304,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:5">
+    <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="11" t="s">
         <v>1284</v>
       </c>
@@ -85119,7 +85315,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:5">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85130,7 +85326,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:5">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="11" t="s">
         <v>1284</v>
       </c>
@@ -85141,7 +85337,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="16" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A16" s="11" t="s">
         <v>1159</v>
       </c>
@@ -85150,7 +85346,7 @@
       </c>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:5">
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="11" t="s">
         <v>1284</v>
       </c>
@@ -85161,7 +85357,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:5">
+    <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="11" t="s">
         <v>1284</v>
       </c>
@@ -85172,7 +85368,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="19" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A19" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85181,11 +85377,11 @@
       </c>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" s="9" customFormat="1" spans="2:3">
+    <row r="20" spans="1:5" s="9" customFormat="1">
       <c r="B20"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="21" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A21" s="11" t="s">
         <v>1153</v>
       </c>
@@ -85196,7 +85392,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:5">
+    <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85207,7 +85403,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:5">
+    <row r="23" spans="1:5" ht="14.25">
       <c r="A23" s="11" t="s">
         <v>1269</v>
       </c>
@@ -85216,7 +85412,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="24" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A24" s="11" t="s">
         <v>1159</v>
       </c>
@@ -85225,50 +85421,49 @@
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="25" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A25" s="11" t="s">
         <v>1269</v>
       </c>
       <c r="B25"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="30" customFormat="1" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="12"/>
       <c r="D30" s="9"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="39" ht="14.25" spans="1:1">
+    <row r="39" spans="1:1" ht="14.25">
       <c r="A39" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" display="mht@shequchina.cn"/>
+    <hyperlink ref="C21" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
@@ -85277,25 +85472,25 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="C2" s="12"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="C3" s="12"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>1269</v>
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="C5" s="12"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C6" s="12"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A7" s="11" t="s">
         <v>1153</v>
       </c>
@@ -85306,7 +85501,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A8" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85315,7 +85510,7 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85324,7 +85519,7 @@
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="10" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A10" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85333,10 +85528,10 @@
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="11" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C11" s="12"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A12" s="11" t="s">
         <v>1159</v>
       </c>
@@ -85345,7 +85540,7 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A13" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85354,12 +85549,12 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" ht="14.25" spans="1:1">
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="12"/>
@@ -85367,27 +85562,26 @@
       <c r="E18" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1140</v>
       </c>
@@ -85396,10 +85590,10 @@
       </c>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C2" s="12"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A3" s="11" t="s">
         <v>1153</v>
       </c>
@@ -85410,7 +85604,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A4" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85419,7 +85613,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="5" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85428,10 +85622,10 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="6" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C6" s="12"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="7" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A7" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85440,7 +85634,7 @@
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A8" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85449,22 +85643,22 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="9" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A9" s="11" t="s">
         <v>1269</v>
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="10" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C10" s="12"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="11" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C11" s="12"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="12" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C12" s="12"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A13" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85473,10 +85667,10 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="12" spans="3:3">
+    <row r="14" spans="1:3" s="9" customFormat="1" ht="12">
       <c r="C14" s="12"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="15" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A15" s="11" t="s">
         <v>1159</v>
       </c>
@@ -85485,7 +85679,7 @@
       </c>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="14.25" spans="1:3">
+    <row r="16" spans="1:3" s="9" customFormat="1" ht="14.25">
       <c r="A16" s="11" t="s">
         <v>1142</v>
       </c>
@@ -85494,12 +85688,12 @@
       </c>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" ht="14.25" spans="1:1">
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="11" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="12"/>
@@ -85507,7 +85701,7 @@
       <c r="E21" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>